--- a/Data/cleaned_and_combined_data/Dwelling_Lifetime/Cleaned_Dwelling_Lifetime.xlsx
+++ b/Data/cleaned_and_combined_data/Dwelling_Lifetime/Cleaned_Dwelling_Lifetime.xlsx
@@ -472,10 +472,10 @@
         <v>1801</v>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>149.8166666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>44.8950611111111</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>1802</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>149.6333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>44.79024444444444</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>1803</v>
       </c>
       <c r="C5" t="n">
-        <v>150</v>
+        <v>149.45</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>44.68554999999999</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>1804</v>
       </c>
       <c r="C6" t="n">
-        <v>150</v>
+        <v>149.2666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>44.58097777777778</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>1805</v>
       </c>
       <c r="C7" t="n">
-        <v>150</v>
+        <v>149.0833333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>44.47652777777778</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>1806</v>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>148.9</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>44.3722</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>1807</v>
       </c>
       <c r="C9" t="n">
-        <v>150</v>
+        <v>148.7166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>44.26799444444444</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>1808</v>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>148.5333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44.16391111111111</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>1809</v>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>148.35</v>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>44.05994999999999</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>1810</v>
       </c>
       <c r="C12" t="n">
-        <v>150</v>
+        <v>148.1666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>43.95611111111111</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>1811</v>
       </c>
       <c r="C13" t="n">
-        <v>150</v>
+        <v>147.9833333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>43.85239444444445</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>1812</v>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>147.8</v>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>43.7488</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>1813</v>
       </c>
       <c r="C15" t="n">
-        <v>150</v>
+        <v>147.6166666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>43.64532777777777</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>1814</v>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>147.4333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>43.54197777777778</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>1815</v>
       </c>
       <c r="C17" t="n">
-        <v>150</v>
+        <v>147.25</v>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>43.43875</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>1816</v>
       </c>
       <c r="C18" t="n">
-        <v>150</v>
+        <v>147.0666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>43.33564444444445</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>1817</v>
       </c>
       <c r="C19" t="n">
-        <v>150</v>
+        <v>146.8833333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>43.23266111111111</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>1818</v>
       </c>
       <c r="C20" t="n">
-        <v>150</v>
+        <v>146.7</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>43.1298</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>1819</v>
       </c>
       <c r="C21" t="n">
-        <v>150</v>
+        <v>146.5166666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>43.02706111111112</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>1820</v>
       </c>
       <c r="C22" t="n">
-        <v>150</v>
+        <v>146.3333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>42.92444444444445</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>1821</v>
       </c>
       <c r="C23" t="n">
-        <v>150</v>
+        <v>146.15</v>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>42.82195</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>1822</v>
       </c>
       <c r="C24" t="n">
-        <v>150</v>
+        <v>145.9666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>42.71957777777778</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>1823</v>
       </c>
       <c r="C25" t="n">
-        <v>150</v>
+        <v>145.7833333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>42.61732777777777</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>1824</v>
       </c>
       <c r="C26" t="n">
-        <v>150</v>
+        <v>145.6</v>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>42.51520000000001</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>1825</v>
       </c>
       <c r="C27" t="n">
-        <v>150</v>
+        <v>145.4166666666667</v>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>42.41319444444445</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>1826</v>
       </c>
       <c r="C28" t="n">
-        <v>149</v>
+        <v>145.2333333333333</v>
       </c>
       <c r="D28" t="n">
-        <v>44.4290909090909</v>
+        <v>42.31131111111112</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>1827</v>
       </c>
       <c r="C29" t="n">
-        <v>149</v>
+        <v>145.05</v>
       </c>
       <c r="D29" t="n">
-        <v>44.4290909090909</v>
+        <v>42.20955</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>1828</v>
       </c>
       <c r="C30" t="n">
-        <v>149</v>
+        <v>144.8666666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>44.4290909090909</v>
+        <v>42.10791111111111</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>1829</v>
       </c>
       <c r="C31" t="n">
-        <v>149</v>
+        <v>144.6833333333333</v>
       </c>
       <c r="D31" t="n">
-        <v>44.4290909090909</v>
+        <v>42.00639444444445</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>1830</v>
       </c>
       <c r="C32" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="D32" t="n">
-        <v>44.4290909090909</v>
+        <v>41.90499999999999</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>1831</v>
       </c>
       <c r="C33" t="n">
-        <v>149</v>
+        <v>144.3166666666667</v>
       </c>
       <c r="D33" t="n">
-        <v>44.4290909090909</v>
+        <v>41.80372777777778</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>1832</v>
       </c>
       <c r="C34" t="n">
-        <v>149</v>
+        <v>144.1333333333334</v>
       </c>
       <c r="D34" t="n">
-        <v>44.4290909090909</v>
+        <v>41.70257777777778</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>1833</v>
       </c>
       <c r="C35" t="n">
-        <v>149</v>
+        <v>143.95</v>
       </c>
       <c r="D35" t="n">
-        <v>44.4290909090909</v>
+        <v>41.60155</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>1834</v>
       </c>
       <c r="C36" t="n">
-        <v>149</v>
+        <v>143.7666666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>44.4290909090909</v>
+        <v>41.50064444444445</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>1835</v>
       </c>
       <c r="C37" t="n">
-        <v>149</v>
+        <v>143.5833333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>44.4290909090909</v>
+        <v>41.39986111111111</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>1836</v>
       </c>
       <c r="C38" t="n">
-        <v>149</v>
+        <v>143.4</v>
       </c>
       <c r="D38" t="n">
-        <v>44.4290909090909</v>
+        <v>41.2992</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>1837</v>
       </c>
       <c r="C39" t="n">
-        <v>149</v>
+        <v>143.2166666666667</v>
       </c>
       <c r="D39" t="n">
-        <v>44.4290909090909</v>
+        <v>41.19866111111111</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>1838</v>
       </c>
       <c r="C40" t="n">
-        <v>149</v>
+        <v>143.0333333333334</v>
       </c>
       <c r="D40" t="n">
-        <v>44.4290909090909</v>
+        <v>41.09824444444445</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>1839</v>
       </c>
       <c r="C41" t="n">
-        <v>149</v>
+        <v>142.85</v>
       </c>
       <c r="D41" t="n">
-        <v>44.4290909090909</v>
+        <v>40.99795</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>1840</v>
       </c>
       <c r="C42" t="n">
-        <v>149</v>
+        <v>142.6666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>44.4290909090909</v>
+        <v>40.89777777777778</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>1841</v>
       </c>
       <c r="C43" t="n">
-        <v>149</v>
+        <v>142.4833333333333</v>
       </c>
       <c r="D43" t="n">
-        <v>44.4290909090909</v>
+        <v>40.79772777777778</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>1842</v>
       </c>
       <c r="C44" t="n">
-        <v>149</v>
+        <v>142.3</v>
       </c>
       <c r="D44" t="n">
-        <v>44.4290909090909</v>
+        <v>40.6978</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>1843</v>
       </c>
       <c r="C45" t="n">
-        <v>149</v>
+        <v>142.1166666666667</v>
       </c>
       <c r="D45" t="n">
-        <v>44.4290909090909</v>
+        <v>40.59799444444445</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>1844</v>
       </c>
       <c r="C46" t="n">
-        <v>149</v>
+        <v>141.9333333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>44.4290909090909</v>
+        <v>40.49831111111111</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>1845</v>
       </c>
       <c r="C47" t="n">
-        <v>149</v>
+        <v>141.75</v>
       </c>
       <c r="D47" t="n">
-        <v>44.4290909090909</v>
+        <v>40.39875000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>1846</v>
       </c>
       <c r="C48" t="n">
-        <v>149</v>
+        <v>141.5666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>44.4290909090909</v>
+        <v>40.29931111111112</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>1847</v>
       </c>
       <c r="C49" t="n">
-        <v>149</v>
+        <v>141.3833333333334</v>
       </c>
       <c r="D49" t="n">
-        <v>44.4290909090909</v>
+        <v>40.19999444444445</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>1848</v>
       </c>
       <c r="C50" t="n">
-        <v>149</v>
+        <v>141.2</v>
       </c>
       <c r="D50" t="n">
-        <v>44.4290909090909</v>
+        <v>40.10080000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>1849</v>
       </c>
       <c r="C51" t="n">
-        <v>149</v>
+        <v>141.0166666666667</v>
       </c>
       <c r="D51" t="n">
-        <v>44.4290909090909</v>
+        <v>40.00172777777778</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>1850</v>
       </c>
       <c r="C52" t="n">
-        <v>149</v>
+        <v>140.8333333333333</v>
       </c>
       <c r="D52" t="n">
-        <v>44.4290909090909</v>
+        <v>39.90277777777778</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>1851</v>
       </c>
       <c r="C53" t="n">
-        <v>149</v>
+        <v>140.65</v>
       </c>
       <c r="D53" t="n">
-        <v>44.4290909090909</v>
+        <v>39.80395000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>1852</v>
       </c>
       <c r="C54" t="n">
-        <v>149</v>
+        <v>140.4666666666667</v>
       </c>
       <c r="D54" t="n">
-        <v>44.4290909090909</v>
+        <v>39.70524444444445</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>1853</v>
       </c>
       <c r="C55" t="n">
-        <v>149</v>
+        <v>140.2833333333334</v>
       </c>
       <c r="D55" t="n">
-        <v>44.4290909090909</v>
+        <v>39.60666111111112</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>1854</v>
       </c>
       <c r="C56" t="n">
-        <v>149</v>
+        <v>140.1</v>
       </c>
       <c r="D56" t="n">
-        <v>44.4290909090909</v>
+        <v>39.50820000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>1855</v>
       </c>
       <c r="C57" t="n">
-        <v>149</v>
+        <v>139.9166666666667</v>
       </c>
       <c r="D57" t="n">
-        <v>44.4290909090909</v>
+        <v>39.40986111111112</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>1856</v>
       </c>
       <c r="C58" t="n">
-        <v>149</v>
+        <v>139.7333333333333</v>
       </c>
       <c r="D58" t="n">
-        <v>44.4290909090909</v>
+        <v>39.31164444444445</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>1857</v>
       </c>
       <c r="C59" t="n">
-        <v>149</v>
+        <v>139.55</v>
       </c>
       <c r="D59" t="n">
-        <v>44.4290909090909</v>
+        <v>39.21355000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>1858</v>
       </c>
       <c r="C60" t="n">
-        <v>148</v>
+        <v>139.3666666666667</v>
       </c>
       <c r="D60" t="n">
-        <v>43.86181818181819</v>
+        <v>39.11557777777778</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>1859</v>
       </c>
       <c r="C61" t="n">
-        <v>148</v>
+        <v>139.1833333333334</v>
       </c>
       <c r="D61" t="n">
-        <v>43.86181818181819</v>
+        <v>39.01772777777779</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>1860</v>
       </c>
       <c r="C62" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D62" t="n">
-        <v>43.86181818181819</v>
+        <v>38.92000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>1861</v>
       </c>
       <c r="C63" t="n">
-        <v>148</v>
+        <v>138.8166666666667</v>
       </c>
       <c r="D63" t="n">
-        <v>43.86181818181819</v>
+        <v>38.82239444444446</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>1862</v>
       </c>
       <c r="C64" t="n">
-        <v>148</v>
+        <v>138.6333333333334</v>
       </c>
       <c r="D64" t="n">
-        <v>43.86181818181819</v>
+        <v>38.72491111111111</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>1863</v>
       </c>
       <c r="C65" t="n">
-        <v>148</v>
+        <v>138.45</v>
       </c>
       <c r="D65" t="n">
-        <v>43.86181818181819</v>
+        <v>38.62755000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>1864</v>
       </c>
       <c r="C66" t="n">
-        <v>148</v>
+        <v>138.2666666666667</v>
       </c>
       <c r="D66" t="n">
-        <v>43.86181818181819</v>
+        <v>38.53031111111112</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>1865</v>
       </c>
       <c r="C67" t="n">
-        <v>148</v>
+        <v>138.0833333333333</v>
       </c>
       <c r="D67" t="n">
-        <v>43.86181818181819</v>
+        <v>38.43319444444445</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>1866</v>
       </c>
       <c r="C68" t="n">
-        <v>148</v>
+        <v>137.9</v>
       </c>
       <c r="D68" t="n">
-        <v>43.86181818181819</v>
+        <v>38.33620000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>1867</v>
       </c>
       <c r="C69" t="n">
-        <v>148</v>
+        <v>137.7166666666667</v>
       </c>
       <c r="D69" t="n">
-        <v>43.86181818181819</v>
+        <v>38.23932777777779</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>1868</v>
       </c>
       <c r="C70" t="n">
-        <v>148</v>
+        <v>137.5333333333334</v>
       </c>
       <c r="D70" t="n">
-        <v>43.86181818181819</v>
+        <v>38.14257777777778</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>1869</v>
       </c>
       <c r="C71" t="n">
-        <v>148</v>
+        <v>137.35</v>
       </c>
       <c r="D71" t="n">
-        <v>43.86181818181819</v>
+        <v>38.04595000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>1870</v>
       </c>
       <c r="C72" t="n">
-        <v>148</v>
+        <v>137.1666666666667</v>
       </c>
       <c r="D72" t="n">
-        <v>43.86181818181819</v>
+        <v>37.94944444444445</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>1871</v>
       </c>
       <c r="C73" t="n">
-        <v>147</v>
+        <v>136.9833333333333</v>
       </c>
       <c r="D73" t="n">
-        <v>43.29818181818182</v>
+        <v>37.85306111111111</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>1872</v>
       </c>
       <c r="C74" t="n">
-        <v>147</v>
+        <v>136.8</v>
       </c>
       <c r="D74" t="n">
-        <v>43.29818181818182</v>
+        <v>37.75680000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>1873</v>
       </c>
       <c r="C75" t="n">
-        <v>147</v>
+        <v>136.6166666666667</v>
       </c>
       <c r="D75" t="n">
-        <v>43.29818181818182</v>
+        <v>37.66066111111112</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>1874</v>
       </c>
       <c r="C76" t="n">
-        <v>147</v>
+        <v>136.4333333333334</v>
       </c>
       <c r="D76" t="n">
-        <v>43.29818181818182</v>
+        <v>37.56464444444445</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>1875</v>
       </c>
       <c r="C77" t="n">
-        <v>147</v>
+        <v>136.25</v>
       </c>
       <c r="D77" t="n">
-        <v>43.29818181818182</v>
+        <v>37.46875000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>1876</v>
       </c>
       <c r="C78" t="n">
-        <v>147</v>
+        <v>136.0666666666667</v>
       </c>
       <c r="D78" t="n">
-        <v>43.29818181818182</v>
+        <v>37.37297777777778</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>1877</v>
       </c>
       <c r="C79" t="n">
-        <v>147</v>
+        <v>135.8833333333334</v>
       </c>
       <c r="D79" t="n">
-        <v>43.29818181818182</v>
+        <v>37.27732777777779</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>1878</v>
       </c>
       <c r="C80" t="n">
-        <v>146</v>
+        <v>135.7</v>
       </c>
       <c r="D80" t="n">
-        <v>42.73818181818181</v>
+        <v>37.18180000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>1879</v>
       </c>
       <c r="C81" t="n">
-        <v>146</v>
+        <v>135.5166666666667</v>
       </c>
       <c r="D81" t="n">
-        <v>42.73818181818181</v>
+        <v>37.08639444444446</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>1880</v>
       </c>
       <c r="C82" t="n">
-        <v>146</v>
+        <v>135.3333333333334</v>
       </c>
       <c r="D82" t="n">
-        <v>42.73818181818181</v>
+        <v>36.99111111111112</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>1881</v>
       </c>
       <c r="C83" t="n">
-        <v>146</v>
+        <v>135.15</v>
       </c>
       <c r="D83" t="n">
-        <v>42.73818181818181</v>
+        <v>36.89595000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>1882</v>
       </c>
       <c r="C84" t="n">
-        <v>145</v>
+        <v>134.9666666666667</v>
       </c>
       <c r="D84" t="n">
-        <v>42.18181818181818</v>
+        <v>36.80091111111112</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>1883</v>
       </c>
       <c r="C85" t="n">
-        <v>145</v>
+        <v>134.7833333333334</v>
       </c>
       <c r="D85" t="n">
-        <v>42.18181818181818</v>
+        <v>36.70599444444446</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>1884</v>
       </c>
       <c r="C86" t="n">
-        <v>145</v>
+        <v>134.6</v>
       </c>
       <c r="D86" t="n">
-        <v>42.18181818181818</v>
+        <v>36.61120000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>1885</v>
       </c>
       <c r="C87" t="n">
-        <v>145</v>
+        <v>134.4166666666667</v>
       </c>
       <c r="D87" t="n">
-        <v>42.18181818181818</v>
+        <v>36.51652777777778</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>1886</v>
       </c>
       <c r="C88" t="n">
-        <v>145</v>
+        <v>134.2333333333333</v>
       </c>
       <c r="D88" t="n">
-        <v>42.18181818181818</v>
+        <v>36.42197777777778</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>1887</v>
       </c>
       <c r="C89" t="n">
-        <v>145</v>
+        <v>134.05</v>
       </c>
       <c r="D89" t="n">
-        <v>42.18181818181818</v>
+        <v>36.32755000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>1888</v>
       </c>
       <c r="C90" t="n">
-        <v>145</v>
+        <v>133.8666666666667</v>
       </c>
       <c r="D90" t="n">
-        <v>42.18181818181818</v>
+        <v>36.23324444444445</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>1889</v>
       </c>
       <c r="C91" t="n">
-        <v>145</v>
+        <v>133.6833333333334</v>
       </c>
       <c r="D91" t="n">
-        <v>42.18181818181818</v>
+        <v>36.13906111111113</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>1890</v>
       </c>
       <c r="C92" t="n">
-        <v>144</v>
+        <v>133.5</v>
       </c>
       <c r="D92" t="n">
-        <v>41.62909090909091</v>
+        <v>36.04500000000001</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>1891</v>
       </c>
       <c r="C93" t="n">
-        <v>144</v>
+        <v>133.3166666666667</v>
       </c>
       <c r="D93" t="n">
-        <v>41.62909090909091</v>
+        <v>35.95106111111112</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>1892</v>
       </c>
       <c r="C94" t="n">
-        <v>144</v>
+        <v>133.1333333333334</v>
       </c>
       <c r="D94" t="n">
-        <v>41.62909090909091</v>
+        <v>35.85724444444445</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>1893</v>
       </c>
       <c r="C95" t="n">
-        <v>144</v>
+        <v>132.95</v>
       </c>
       <c r="D95" t="n">
-        <v>41.62909090909091</v>
+        <v>35.76355000000002</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>1894</v>
       </c>
       <c r="C96" t="n">
-        <v>144</v>
+        <v>132.7666666666667</v>
       </c>
       <c r="D96" t="n">
-        <v>41.62909090909091</v>
+        <v>35.66997777777779</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>1895</v>
       </c>
       <c r="C97" t="n">
-        <v>143</v>
+        <v>132.5833333333334</v>
       </c>
       <c r="D97" t="n">
-        <v>41.07999999999999</v>
+        <v>35.57652777777779</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>1896</v>
       </c>
       <c r="C98" t="n">
-        <v>143</v>
+        <v>132.4</v>
       </c>
       <c r="D98" t="n">
-        <v>41.07999999999999</v>
+        <v>35.48320000000001</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>1897</v>
       </c>
       <c r="C99" t="n">
-        <v>143</v>
+        <v>132.2166666666667</v>
       </c>
       <c r="D99" t="n">
-        <v>41.07999999999999</v>
+        <v>35.38999444444446</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>1898</v>
       </c>
       <c r="C100" t="n">
-        <v>142</v>
+        <v>132.0333333333334</v>
       </c>
       <c r="D100" t="n">
-        <v>40.53454545454546</v>
+        <v>35.29691111111112</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>1899</v>
       </c>
       <c r="C101" t="n">
-        <v>142</v>
+        <v>131.85</v>
       </c>
       <c r="D101" t="n">
-        <v>40.53454545454546</v>
+        <v>35.20395000000001</v>
       </c>
     </row>
     <row r="102">
@@ -1858,10 +1858,10 @@
         <v>1900</v>
       </c>
       <c r="C102" t="n">
-        <v>142</v>
+        <v>131.6666666666667</v>
       </c>
       <c r="D102" t="n">
-        <v>40.53454545454546</v>
+        <v>35.11111111111112</v>
       </c>
     </row>
     <row r="103">
@@ -1872,10 +1872,10 @@
         <v>1901</v>
       </c>
       <c r="C103" t="n">
-        <v>141</v>
+        <v>131.4833333333334</v>
       </c>
       <c r="D103" t="n">
-        <v>39.99272727272727</v>
+        <v>35.01839444444446</v>
       </c>
     </row>
     <row r="104">
@@ -1886,10 +1886,10 @@
         <v>1902</v>
       </c>
       <c r="C104" t="n">
-        <v>141</v>
+        <v>131.3</v>
       </c>
       <c r="D104" t="n">
-        <v>39.99272727272727</v>
+        <v>34.92580000000001</v>
       </c>
     </row>
     <row r="105">
@@ -1900,10 +1900,10 @@
         <v>1903</v>
       </c>
       <c r="C105" t="n">
-        <v>140</v>
+        <v>131.1166666666667</v>
       </c>
       <c r="D105" t="n">
-        <v>39.45454545454545</v>
+        <v>34.8333277777778</v>
       </c>
     </row>
     <row r="106">
@@ -1914,10 +1914,10 @@
         <v>1904</v>
       </c>
       <c r="C106" t="n">
-        <v>140</v>
+        <v>130.9333333333334</v>
       </c>
       <c r="D106" t="n">
-        <v>39.45454545454545</v>
+        <v>34.74097777777779</v>
       </c>
     </row>
     <row r="107">
@@ -1928,10 +1928,10 @@
         <v>1905</v>
       </c>
       <c r="C107" t="n">
-        <v>140</v>
+        <v>130.75</v>
       </c>
       <c r="D107" t="n">
-        <v>39.45454545454545</v>
+        <v>34.64875000000001</v>
       </c>
     </row>
     <row r="108">
@@ -1942,10 +1942,10 @@
         <v>1906</v>
       </c>
       <c r="C108" t="n">
-        <v>140</v>
+        <v>130.5666666666667</v>
       </c>
       <c r="D108" t="n">
-        <v>39.45454545454545</v>
+        <v>34.55664444444446</v>
       </c>
     </row>
     <row r="109">
@@ -1956,10 +1956,10 @@
         <v>1907</v>
       </c>
       <c r="C109" t="n">
-        <v>139</v>
+        <v>130.3833333333334</v>
       </c>
       <c r="D109" t="n">
-        <v>38.92</v>
+        <v>34.46466111111113</v>
       </c>
     </row>
     <row r="110">
@@ -1970,10 +1970,10 @@
         <v>1908</v>
       </c>
       <c r="C110" t="n">
-        <v>139</v>
+        <v>130.2</v>
       </c>
       <c r="D110" t="n">
-        <v>38.92</v>
+        <v>34.37280000000001</v>
       </c>
     </row>
     <row r="111">
@@ -1984,10 +1984,10 @@
         <v>1909</v>
       </c>
       <c r="C111" t="n">
-        <v>139</v>
+        <v>130.0166666666667</v>
       </c>
       <c r="D111" t="n">
-        <v>38.92</v>
+        <v>34.28106111111113</v>
       </c>
     </row>
     <row r="112">
@@ -1998,10 +1998,10 @@
         <v>1910</v>
       </c>
       <c r="C112" t="n">
-        <v>138</v>
+        <v>129.8333333333334</v>
       </c>
       <c r="D112" t="n">
-        <v>38.38909090909091</v>
+        <v>34.18944444444446</v>
       </c>
     </row>
     <row r="113">
@@ -2012,10 +2012,10 @@
         <v>1911</v>
       </c>
       <c r="C113" t="n">
-        <v>138</v>
+        <v>129.65</v>
       </c>
       <c r="D113" t="n">
-        <v>38.38909090909091</v>
+        <v>34.09795000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2026,10 +2026,10 @@
         <v>1912</v>
       </c>
       <c r="C114" t="n">
-        <v>137</v>
+        <v>129.4666666666667</v>
       </c>
       <c r="D114" t="n">
-        <v>37.86181818181818</v>
+        <v>34.00657777777779</v>
       </c>
     </row>
     <row r="115">
@@ -2040,10 +2040,10 @@
         <v>1913</v>
       </c>
       <c r="C115" t="n">
-        <v>137</v>
+        <v>129.2833333333334</v>
       </c>
       <c r="D115" t="n">
-        <v>37.86181818181818</v>
+        <v>33.91532777777779</v>
       </c>
     </row>
     <row r="116">
@@ -2054,10 +2054,10 @@
         <v>1914</v>
       </c>
       <c r="C116" t="n">
-        <v>136</v>
+        <v>129.1000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>37.33818181818182</v>
+        <v>33.82420000000001</v>
       </c>
     </row>
     <row r="117">
@@ -2068,10 +2068,10 @@
         <v>1915</v>
       </c>
       <c r="C117" t="n">
-        <v>136</v>
+        <v>128.9166666666667</v>
       </c>
       <c r="D117" t="n">
-        <v>37.33818181818182</v>
+        <v>33.73319444444446</v>
       </c>
     </row>
     <row r="118">
@@ -2082,10 +2082,10 @@
         <v>1916</v>
       </c>
       <c r="C118" t="n">
-        <v>135</v>
+        <v>128.7333333333334</v>
       </c>
       <c r="D118" t="n">
-        <v>36.81818181818181</v>
+        <v>33.64231111111113</v>
       </c>
     </row>
     <row r="119">
@@ -2096,10 +2096,10 @@
         <v>1917</v>
       </c>
       <c r="C119" t="n">
-        <v>135</v>
+        <v>128.55</v>
       </c>
       <c r="D119" t="n">
-        <v>36.81818181818181</v>
+        <v>33.55155000000001</v>
       </c>
     </row>
     <row r="120">
@@ -2110,10 +2110,10 @@
         <v>1918</v>
       </c>
       <c r="C120" t="n">
-        <v>134</v>
+        <v>128.3666666666667</v>
       </c>
       <c r="D120" t="n">
-        <v>36.30181818181818</v>
+        <v>33.46091111111112</v>
       </c>
     </row>
     <row r="121">
@@ -2124,10 +2124,10 @@
         <v>1919</v>
       </c>
       <c r="C121" t="n">
-        <v>134</v>
+        <v>128.1833333333334</v>
       </c>
       <c r="D121" t="n">
-        <v>36.30181818181818</v>
+        <v>33.37039444444446</v>
       </c>
     </row>
     <row r="122">
@@ -2138,10 +2138,10 @@
         <v>1920</v>
       </c>
       <c r="C122" t="n">
-        <v>134</v>
+        <v>128.0000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>36.30181818181818</v>
+        <v>33.28000000000002</v>
       </c>
     </row>
     <row r="123">
@@ -2152,10 +2152,10 @@
         <v>1921</v>
       </c>
       <c r="C123" t="n">
-        <v>133</v>
+        <v>127.8166666666667</v>
       </c>
       <c r="D123" t="n">
-        <v>35.78909090909091</v>
+        <v>33.18972777777779</v>
       </c>
     </row>
     <row r="124">
@@ -2166,10 +2166,10 @@
         <v>1922</v>
       </c>
       <c r="C124" t="n">
-        <v>133</v>
+        <v>127.6333333333334</v>
       </c>
       <c r="D124" t="n">
-        <v>35.78909090909091</v>
+        <v>33.0995777777778</v>
       </c>
     </row>
     <row r="125">
@@ -2180,10 +2180,10 @@
         <v>1923</v>
       </c>
       <c r="C125" t="n">
-        <v>133</v>
+        <v>127.45</v>
       </c>
       <c r="D125" t="n">
-        <v>35.78909090909091</v>
+        <v>33.00955000000001</v>
       </c>
     </row>
     <row r="126">
@@ -2194,10 +2194,10 @@
         <v>1924</v>
       </c>
       <c r="C126" t="n">
-        <v>132</v>
+        <v>127.2666666666667</v>
       </c>
       <c r="D126" t="n">
-        <v>35.28</v>
+        <v>32.91964444444446</v>
       </c>
     </row>
     <row r="127">
@@ -2208,10 +2208,10 @@
         <v>1925</v>
       </c>
       <c r="C127" t="n">
-        <v>132</v>
+        <v>127.0833333333334</v>
       </c>
       <c r="D127" t="n">
-        <v>35.28</v>
+        <v>32.82986111111112</v>
       </c>
     </row>
     <row r="128">
@@ -2222,10 +2222,10 @@
         <v>1926</v>
       </c>
       <c r="C128" t="n">
-        <v>131</v>
+        <v>126.9</v>
       </c>
       <c r="D128" t="n">
-        <v>34.77454545454545</v>
+        <v>32.74020000000002</v>
       </c>
     </row>
     <row r="129">
@@ -2236,10 +2236,10 @@
         <v>1927</v>
       </c>
       <c r="C129" t="n">
-        <v>131</v>
+        <v>126.7166666666667</v>
       </c>
       <c r="D129" t="n">
-        <v>34.77454545454545</v>
+        <v>32.65066111111113</v>
       </c>
     </row>
     <row r="130">
@@ -2250,10 +2250,10 @@
         <v>1928</v>
       </c>
       <c r="C130" t="n">
-        <v>130</v>
+        <v>126.5333333333334</v>
       </c>
       <c r="D130" t="n">
-        <v>34.27272727272727</v>
+        <v>32.56124444444445</v>
       </c>
     </row>
     <row r="131">
@@ -2264,10 +2264,10 @@
         <v>1929</v>
       </c>
       <c r="C131" t="n">
-        <v>129</v>
+        <v>126.3500000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>33.77454545454546</v>
+        <v>32.47195000000001</v>
       </c>
     </row>
     <row r="132">
@@ -2278,10 +2278,10 @@
         <v>1930</v>
       </c>
       <c r="C132" t="n">
-        <v>129</v>
+        <v>126.1666666666667</v>
       </c>
       <c r="D132" t="n">
-        <v>33.77454545454546</v>
+        <v>32.3827777777778</v>
       </c>
     </row>
     <row r="133">
@@ -2292,10 +2292,10 @@
         <v>1931</v>
       </c>
       <c r="C133" t="n">
-        <v>128</v>
+        <v>125.9833333333334</v>
       </c>
       <c r="D133" t="n">
-        <v>33.28</v>
+        <v>32.29372777777779</v>
       </c>
     </row>
     <row r="134">
@@ -2306,10 +2306,10 @@
         <v>1932</v>
       </c>
       <c r="C134" t="n">
-        <v>128</v>
+        <v>125.8</v>
       </c>
       <c r="D134" t="n">
-        <v>33.28</v>
+        <v>32.20480000000001</v>
       </c>
     </row>
     <row r="135">
@@ -2320,10 +2320,10 @@
         <v>1933</v>
       </c>
       <c r="C135" t="n">
-        <v>127</v>
+        <v>125.6166666666667</v>
       </c>
       <c r="D135" t="n">
-        <v>32.78909090909091</v>
+        <v>32.11599444444446</v>
       </c>
     </row>
     <row r="136">
@@ -2334,10 +2334,10 @@
         <v>1934</v>
       </c>
       <c r="C136" t="n">
-        <v>127</v>
+        <v>125.4333333333334</v>
       </c>
       <c r="D136" t="n">
-        <v>32.78909090909091</v>
+        <v>32.02731111111112</v>
       </c>
     </row>
     <row r="137">
@@ -2348,10 +2348,10 @@
         <v>1935</v>
       </c>
       <c r="C137" t="n">
-        <v>126</v>
+        <v>125.25</v>
       </c>
       <c r="D137" t="n">
-        <v>32.30181818181818</v>
+        <v>31.93875000000001</v>
       </c>
     </row>
     <row r="138">
@@ -2362,10 +2362,10 @@
         <v>1936</v>
       </c>
       <c r="C138" t="n">
-        <v>126</v>
+        <v>125.0666666666667</v>
       </c>
       <c r="D138" t="n">
-        <v>32.30181818181818</v>
+        <v>31.85031111111113</v>
       </c>
     </row>
     <row r="139">
@@ -2376,10 +2376,10 @@
         <v>1937</v>
       </c>
       <c r="C139" t="n">
-        <v>126</v>
+        <v>124.8833333333334</v>
       </c>
       <c r="D139" t="n">
-        <v>32.30181818181818</v>
+        <v>31.76199444444446</v>
       </c>
     </row>
     <row r="140">
@@ -2390,10 +2390,10 @@
         <v>1938</v>
       </c>
       <c r="C140" t="n">
-        <v>125</v>
+        <v>124.7</v>
       </c>
       <c r="D140" t="n">
-        <v>31.81818181818182</v>
+        <v>31.67380000000002</v>
       </c>
     </row>
     <row r="141">
@@ -2404,10 +2404,10 @@
         <v>1939</v>
       </c>
       <c r="C141" t="n">
-        <v>124</v>
+        <v>124.5166666666667</v>
       </c>
       <c r="D141" t="n">
-        <v>31.33818181818182</v>
+        <v>31.58572777777779</v>
       </c>
     </row>
     <row r="142">
@@ -2418,10 +2418,10 @@
         <v>1940</v>
       </c>
       <c r="C142" t="n">
-        <v>124</v>
+        <v>124.3333333333334</v>
       </c>
       <c r="D142" t="n">
-        <v>31.33818181818182</v>
+        <v>31.4977777777778</v>
       </c>
     </row>
     <row r="143">
@@ -2432,10 +2432,10 @@
         <v>1941</v>
       </c>
       <c r="C143" t="n">
-        <v>123</v>
+        <v>124.15</v>
       </c>
       <c r="D143" t="n">
-        <v>30.86181818181818</v>
+        <v>31.40995000000002</v>
       </c>
     </row>
     <row r="144">
@@ -2446,10 +2446,10 @@
         <v>1942</v>
       </c>
       <c r="C144" t="n">
-        <v>122</v>
+        <v>123.9666666666667</v>
       </c>
       <c r="D144" t="n">
-        <v>30.38909090909091</v>
+        <v>31.32224444444446</v>
       </c>
     </row>
     <row r="145">
@@ -2460,10 +2460,10 @@
         <v>1943</v>
       </c>
       <c r="C145" t="n">
-        <v>121</v>
+        <v>123.7833333333334</v>
       </c>
       <c r="D145" t="n">
-        <v>29.92</v>
+        <v>31.23466111111113</v>
       </c>
     </row>
     <row r="146">
@@ -2474,10 +2474,10 @@
         <v>1944</v>
       </c>
       <c r="C146" t="n">
-        <v>121</v>
+        <v>123.6000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>29.92</v>
+        <v>31.14720000000002</v>
       </c>
     </row>
     <row r="147">
@@ -2488,10 +2488,10 @@
         <v>1945</v>
       </c>
       <c r="C147" t="n">
-        <v>120</v>
+        <v>123.4166666666667</v>
       </c>
       <c r="D147" t="n">
-        <v>29.45454545454545</v>
+        <v>31.05986111111113</v>
       </c>
     </row>
     <row r="148">
@@ -2502,10 +2502,10 @@
         <v>1946</v>
       </c>
       <c r="C148" t="n">
-        <v>120</v>
+        <v>123.2333333333334</v>
       </c>
       <c r="D148" t="n">
-        <v>29.45454545454545</v>
+        <v>30.97264444444446</v>
       </c>
     </row>
     <row r="149">
@@ -2516,10 +2516,10 @@
         <v>1947</v>
       </c>
       <c r="C149" t="n">
-        <v>119</v>
+        <v>123.0500000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>28.99272727272728</v>
+        <v>30.88555000000002</v>
       </c>
     </row>
     <row r="150">
@@ -2530,10 +2530,10 @@
         <v>1948</v>
       </c>
       <c r="C150" t="n">
-        <v>119</v>
+        <v>122.8666666666667</v>
       </c>
       <c r="D150" t="n">
-        <v>28.99272727272728</v>
+        <v>30.79857777777779</v>
       </c>
     </row>
     <row r="151">
@@ -2544,10 +2544,10 @@
         <v>1949</v>
       </c>
       <c r="C151" t="n">
-        <v>118</v>
+        <v>122.6833333333334</v>
       </c>
       <c r="D151" t="n">
-        <v>28.53454545454546</v>
+        <v>30.71172777777779</v>
       </c>
     </row>
     <row r="152">
@@ -2558,10 +2558,10 @@
         <v>1950</v>
       </c>
       <c r="C152" t="n">
-        <v>118</v>
+        <v>122.5000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>28.53454545454546</v>
+        <v>30.62500000000002</v>
       </c>
     </row>
     <row r="153">
@@ -2572,10 +2572,10 @@
         <v>1951</v>
       </c>
       <c r="C153" t="n">
-        <v>117</v>
+        <v>122.3166666666667</v>
       </c>
       <c r="D153" t="n">
-        <v>28.08</v>
+        <v>30.53839444444446</v>
       </c>
     </row>
     <row r="154">
@@ -2586,10 +2586,10 @@
         <v>1952</v>
       </c>
       <c r="C154" t="n">
-        <v>117</v>
+        <v>122.1333333333334</v>
       </c>
       <c r="D154" t="n">
-        <v>28.08</v>
+        <v>30.45191111111113</v>
       </c>
     </row>
     <row r="155">
@@ -2600,10 +2600,10 @@
         <v>1953</v>
       </c>
       <c r="C155" t="n">
-        <v>117</v>
+        <v>121.95</v>
       </c>
       <c r="D155" t="n">
-        <v>28.08</v>
+        <v>30.36555000000002</v>
       </c>
     </row>
     <row r="156">
@@ -2614,10 +2614,10 @@
         <v>1954</v>
       </c>
       <c r="C156" t="n">
-        <v>116</v>
+        <v>121.7666666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>27.62909090909091</v>
+        <v>30.27931111111113</v>
       </c>
     </row>
     <row r="157">
@@ -2628,10 +2628,10 @@
         <v>1955</v>
       </c>
       <c r="C157" t="n">
-        <v>116</v>
+        <v>121.5833333333334</v>
       </c>
       <c r="D157" t="n">
-        <v>27.62909090909091</v>
+        <v>30.19319444444446</v>
       </c>
     </row>
     <row r="158">
@@ -2642,10 +2642,10 @@
         <v>1956</v>
       </c>
       <c r="C158" t="n">
-        <v>115</v>
+        <v>121.4000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>27.18181818181818</v>
+        <v>30.10720000000002</v>
       </c>
     </row>
     <row r="159">
@@ -2656,10 +2656,10 @@
         <v>1957</v>
       </c>
       <c r="C159" t="n">
-        <v>115</v>
+        <v>121.2166666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>27.18181818181818</v>
+        <v>30.0213277777778</v>
       </c>
     </row>
     <row r="160">
@@ -2670,10 +2670,10 @@
         <v>1958</v>
       </c>
       <c r="C160" t="n">
-        <v>115</v>
+        <v>121.0333333333334</v>
       </c>
       <c r="D160" t="n">
-        <v>27.18181818181818</v>
+        <v>29.9355777777778</v>
       </c>
     </row>
     <row r="161">
@@ -2684,10 +2684,10 @@
         <v>1959</v>
       </c>
       <c r="C161" t="n">
-        <v>114</v>
+        <v>120.8500000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>26.73818181818182</v>
+        <v>29.84995000000002</v>
       </c>
     </row>
     <row r="162">
@@ -2698,10 +2698,10 @@
         <v>1960</v>
       </c>
       <c r="C162" t="n">
-        <v>113</v>
+        <v>120.6666666666667</v>
       </c>
       <c r="D162" t="n">
-        <v>26.29818181818182</v>
+        <v>29.76444444444446</v>
       </c>
     </row>
     <row r="163">
@@ -2712,10 +2712,10 @@
         <v>1961</v>
       </c>
       <c r="C163" t="n">
-        <v>113</v>
+        <v>120.4833333333334</v>
       </c>
       <c r="D163" t="n">
-        <v>26.29818181818182</v>
+        <v>29.67906111111113</v>
       </c>
     </row>
     <row r="164">
@@ -2726,10 +2726,10 @@
         <v>1962</v>
       </c>
       <c r="C164" t="n">
-        <v>112</v>
+        <v>120.3000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>25.86181818181818</v>
+        <v>29.59380000000002</v>
       </c>
     </row>
     <row r="165">
@@ -2740,10 +2740,10 @@
         <v>1963</v>
       </c>
       <c r="C165" t="n">
-        <v>112</v>
+        <v>120.1166666666667</v>
       </c>
       <c r="D165" t="n">
-        <v>25.86181818181818</v>
+        <v>29.50866111111113</v>
       </c>
     </row>
     <row r="166">
@@ -2754,10 +2754,10 @@
         <v>1964</v>
       </c>
       <c r="C166" t="n">
-        <v>111</v>
+        <v>119.9333333333334</v>
       </c>
       <c r="D166" t="n">
-        <v>25.42909090909091</v>
+        <v>29.42364444444446</v>
       </c>
     </row>
     <row r="167">
@@ -2768,10 +2768,10 @@
         <v>1965</v>
       </c>
       <c r="C167" t="n">
-        <v>111</v>
+        <v>119.7500000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>25.42909090909091</v>
+        <v>29.33875000000002</v>
       </c>
     </row>
     <row r="168">
@@ -2782,10 +2782,10 @@
         <v>1966</v>
       </c>
       <c r="C168" t="n">
-        <v>110</v>
+        <v>119.5666666666667</v>
       </c>
       <c r="D168" t="n">
-        <v>25</v>
+        <v>29.25397777777779</v>
       </c>
     </row>
     <row r="169">
@@ -2796,10 +2796,10 @@
         <v>1967</v>
       </c>
       <c r="C169" t="n">
-        <v>110</v>
+        <v>119.3833333333334</v>
       </c>
       <c r="D169" t="n">
-        <v>25</v>
+        <v>29.1693277777778</v>
       </c>
     </row>
     <row r="170">
@@ -2810,10 +2810,10 @@
         <v>1968</v>
       </c>
       <c r="C170" t="n">
-        <v>109</v>
+        <v>119.2000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>24.57454545454545</v>
+        <v>29.08480000000002</v>
       </c>
     </row>
     <row r="171">
@@ -2824,10 +2824,10 @@
         <v>1969</v>
       </c>
       <c r="C171" t="n">
-        <v>109</v>
+        <v>119.0166666666667</v>
       </c>
       <c r="D171" t="n">
-        <v>24.57454545454545</v>
+        <v>29.00039444444446</v>
       </c>
     </row>
     <row r="172">
@@ -2838,10 +2838,10 @@
         <v>1970</v>
       </c>
       <c r="C172" t="n">
-        <v>109</v>
+        <v>118.8333333333334</v>
       </c>
       <c r="D172" t="n">
-        <v>24.57454545454545</v>
+        <v>28.91611111111113</v>
       </c>
     </row>
     <row r="173">
@@ -2852,10 +2852,10 @@
         <v>1971</v>
       </c>
       <c r="C173" t="n">
-        <v>108</v>
+        <v>118.6500000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>24.15272727272727</v>
+        <v>28.83195000000002</v>
       </c>
     </row>
     <row r="174">
@@ -2866,10 +2866,10 @@
         <v>1972</v>
       </c>
       <c r="C174" t="n">
-        <v>108</v>
+        <v>118.4666666666667</v>
       </c>
       <c r="D174" t="n">
-        <v>24.15272727272727</v>
+        <v>28.74791111111113</v>
       </c>
     </row>
     <row r="175">
@@ -2880,10 +2880,10 @@
         <v>1973</v>
       </c>
       <c r="C175" t="n">
-        <v>108</v>
+        <v>118.2833333333334</v>
       </c>
       <c r="D175" t="n">
-        <v>24.15272727272727</v>
+        <v>28.66399444444446</v>
       </c>
     </row>
     <row r="176">
@@ -2894,10 +2894,10 @@
         <v>1974</v>
       </c>
       <c r="C176" t="n">
-        <v>107</v>
+        <v>118.1000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>23.73454545454545</v>
+        <v>28.58020000000002</v>
       </c>
     </row>
     <row r="177">
@@ -2908,10 +2908,10 @@
         <v>1975</v>
       </c>
       <c r="C177" t="n">
-        <v>107</v>
+        <v>117.9166666666667</v>
       </c>
       <c r="D177" t="n">
-        <v>23.73454545454545</v>
+        <v>28.4965277777778</v>
       </c>
     </row>
     <row r="178">
@@ -2922,10 +2922,10 @@
         <v>1976</v>
       </c>
       <c r="C178" t="n">
-        <v>106</v>
+        <v>117.7333333333334</v>
       </c>
       <c r="D178" t="n">
-        <v>23.32</v>
+        <v>28.4129777777778</v>
       </c>
     </row>
     <row r="179">
@@ -2936,10 +2936,10 @@
         <v>1977</v>
       </c>
       <c r="C179" t="n">
-        <v>106</v>
+        <v>117.5500000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>23.32</v>
+        <v>28.32955000000002</v>
       </c>
     </row>
     <row r="180">
@@ -2950,10 +2950,10 @@
         <v>1978</v>
       </c>
       <c r="C180" t="n">
-        <v>106</v>
+        <v>117.3666666666667</v>
       </c>
       <c r="D180" t="n">
-        <v>23.32</v>
+        <v>28.24624444444447</v>
       </c>
     </row>
     <row r="181">
@@ -2964,10 +2964,10 @@
         <v>1979</v>
       </c>
       <c r="C181" t="n">
-        <v>105</v>
+        <v>117.1833333333334</v>
       </c>
       <c r="D181" t="n">
-        <v>22.90909090909091</v>
+        <v>28.16306111111113</v>
       </c>
     </row>
     <row r="182">
@@ -2978,10 +2978,10 @@
         <v>1980</v>
       </c>
       <c r="C182" t="n">
-        <v>105</v>
+        <v>117.0000000000001</v>
       </c>
       <c r="D182" t="n">
-        <v>22.90909090909091</v>
+        <v>28.08000000000002</v>
       </c>
     </row>
     <row r="183">
@@ -2992,10 +2992,10 @@
         <v>1981</v>
       </c>
       <c r="C183" t="n">
-        <v>105</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="D183" t="n">
-        <v>22.90909090909091</v>
+        <v>27.99706111111113</v>
       </c>
     </row>
     <row r="184">
@@ -3006,10 +3006,10 @@
         <v>1982</v>
       </c>
       <c r="C184" t="n">
-        <v>104</v>
+        <v>116.6333333333334</v>
       </c>
       <c r="D184" t="n">
-        <v>22.50181818181818</v>
+        <v>27.91424444444447</v>
       </c>
     </row>
     <row r="185">
@@ -3020,10 +3020,10 @@
         <v>1983</v>
       </c>
       <c r="C185" t="n">
-        <v>104</v>
+        <v>116.4500000000001</v>
       </c>
       <c r="D185" t="n">
-        <v>22.50181818181818</v>
+        <v>27.83155000000002</v>
       </c>
     </row>
     <row r="186">
@@ -3034,10 +3034,10 @@
         <v>1984</v>
       </c>
       <c r="C186" t="n">
-        <v>104</v>
+        <v>116.2666666666667</v>
       </c>
       <c r="D186" t="n">
-        <v>22.50181818181818</v>
+        <v>27.7489777777778</v>
       </c>
     </row>
     <row r="187">
@@ -3048,10 +3048,10 @@
         <v>1985</v>
       </c>
       <c r="C187" t="n">
-        <v>103</v>
+        <v>116.0833333333334</v>
       </c>
       <c r="D187" t="n">
-        <v>22.09818181818182</v>
+        <v>27.6665277777778</v>
       </c>
     </row>
     <row r="188">
@@ -3062,10 +3062,10 @@
         <v>1986</v>
       </c>
       <c r="C188" t="n">
-        <v>103</v>
+        <v>115.9000000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>22.09818181818182</v>
+        <v>27.58420000000002</v>
       </c>
     </row>
     <row r="189">
@@ -3076,10 +3076,10 @@
         <v>1987</v>
       </c>
       <c r="C189" t="n">
-        <v>103</v>
+        <v>115.7166666666667</v>
       </c>
       <c r="D189" t="n">
-        <v>22.09818181818182</v>
+        <v>27.50199444444446</v>
       </c>
     </row>
     <row r="190">
@@ -3090,10 +3090,10 @@
         <v>1988</v>
       </c>
       <c r="C190" t="n">
-        <v>102</v>
+        <v>115.5333333333334</v>
       </c>
       <c r="D190" t="n">
-        <v>21.69818181818182</v>
+        <v>27.41991111111113</v>
       </c>
     </row>
     <row r="191">
@@ -3104,10 +3104,10 @@
         <v>1989</v>
       </c>
       <c r="C191" t="n">
-        <v>102</v>
+        <v>115.3500000000001</v>
       </c>
       <c r="D191" t="n">
-        <v>21.69818181818182</v>
+        <v>27.33795000000002</v>
       </c>
     </row>
     <row r="192">
@@ -3118,10 +3118,10 @@
         <v>1990</v>
       </c>
       <c r="C192" t="n">
-        <v>102</v>
+        <v>115.1666666666667</v>
       </c>
       <c r="D192" t="n">
-        <v>21.69818181818182</v>
+        <v>27.25611111111114</v>
       </c>
     </row>
     <row r="193">
@@ -3132,10 +3132,10 @@
         <v>1991</v>
       </c>
       <c r="C193" t="n">
-        <v>102</v>
+        <v>114.9833333333334</v>
       </c>
       <c r="D193" t="n">
-        <v>21.69818181818182</v>
+        <v>27.17439444444447</v>
       </c>
     </row>
     <row r="194">
@@ -3146,10 +3146,10 @@
         <v>1992</v>
       </c>
       <c r="C194" t="n">
-        <v>102</v>
+        <v>114.8000000000001</v>
       </c>
       <c r="D194" t="n">
-        <v>21.69818181818182</v>
+        <v>27.09280000000002</v>
       </c>
     </row>
     <row r="195">
@@ -3160,10 +3160,10 @@
         <v>1993</v>
       </c>
       <c r="C195" t="n">
-        <v>102</v>
+        <v>114.6166666666667</v>
       </c>
       <c r="D195" t="n">
-        <v>21.69818181818182</v>
+        <v>27.0113277777778</v>
       </c>
     </row>
     <row r="196">
@@ -3174,10 +3174,10 @@
         <v>1994</v>
       </c>
       <c r="C196" t="n">
-        <v>101</v>
+        <v>114.4333333333334</v>
       </c>
       <c r="D196" t="n">
-        <v>21.30181818181818</v>
+        <v>26.9299777777778</v>
       </c>
     </row>
     <row r="197">
@@ -3188,10 +3188,10 @@
         <v>1995</v>
       </c>
       <c r="C197" t="n">
-        <v>101</v>
+        <v>114.2500000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>21.30181818181818</v>
+        <v>26.84875000000002</v>
       </c>
     </row>
     <row r="198">
@@ -3202,10 +3202,10 @@
         <v>1996</v>
       </c>
       <c r="C198" t="n">
-        <v>101</v>
+        <v>114.0666666666667</v>
       </c>
       <c r="D198" t="n">
-        <v>21.30181818181818</v>
+        <v>26.76764444444447</v>
       </c>
     </row>
     <row r="199">
@@ -3216,10 +3216,10 @@
         <v>1997</v>
       </c>
       <c r="C199" t="n">
-        <v>101</v>
+        <v>113.8833333333334</v>
       </c>
       <c r="D199" t="n">
-        <v>21.30181818181818</v>
+        <v>26.68666111111114</v>
       </c>
     </row>
     <row r="200">
@@ -3230,10 +3230,10 @@
         <v>1998</v>
       </c>
       <c r="C200" t="n">
-        <v>100</v>
+        <v>113.7000000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>20.90909090909091</v>
+        <v>26.60580000000002</v>
       </c>
     </row>
     <row r="201">
@@ -3244,10 +3244,10 @@
         <v>1999</v>
       </c>
       <c r="C201" t="n">
-        <v>100</v>
+        <v>113.5166666666667</v>
       </c>
       <c r="D201" t="n">
-        <v>20.90909090909091</v>
+        <v>26.52506111111113</v>
       </c>
     </row>
     <row r="202">
@@ -3258,10 +3258,10 @@
         <v>2000</v>
       </c>
       <c r="C202" t="n">
-        <v>100</v>
+        <v>113.3333333333334</v>
       </c>
       <c r="D202" t="n">
-        <v>20.90909090909091</v>
+        <v>26.44444444444447</v>
       </c>
     </row>
     <row r="203">
@@ -3272,10 +3272,10 @@
         <v>2001</v>
       </c>
       <c r="C203" t="n">
-        <v>100</v>
+        <v>113.1500000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>20.90909090909091</v>
+        <v>26.36395000000002</v>
       </c>
     </row>
     <row r="204">
@@ -3286,10 +3286,10 @@
         <v>2002</v>
       </c>
       <c r="C204" t="n">
-        <v>99</v>
+        <v>112.9666666666667</v>
       </c>
       <c r="D204" t="n">
-        <v>20.52</v>
+        <v>26.2835777777778</v>
       </c>
     </row>
     <row r="205">
@@ -3300,10 +3300,10 @@
         <v>2003</v>
       </c>
       <c r="C205" t="n">
-        <v>99</v>
+        <v>112.7833333333334</v>
       </c>
       <c r="D205" t="n">
-        <v>20.52</v>
+        <v>26.2033277777778</v>
       </c>
     </row>
     <row r="206">
@@ -3314,10 +3314,10 @@
         <v>2004</v>
       </c>
       <c r="C206" t="n">
-        <v>99</v>
+        <v>112.6000000000001</v>
       </c>
       <c r="D206" t="n">
-        <v>20.52</v>
+        <v>26.12320000000002</v>
       </c>
     </row>
     <row r="207">
@@ -3328,10 +3328,10 @@
         <v>2005</v>
       </c>
       <c r="C207" t="n">
-        <v>99</v>
+        <v>112.4166666666667</v>
       </c>
       <c r="D207" t="n">
-        <v>20.52</v>
+        <v>26.04319444444447</v>
       </c>
     </row>
     <row r="208">
@@ -3342,10 +3342,10 @@
         <v>2006</v>
       </c>
       <c r="C208" t="n">
-        <v>99</v>
+        <v>112.2333333333334</v>
       </c>
       <c r="D208" t="n">
-        <v>20.52</v>
+        <v>25.96331111111114</v>
       </c>
     </row>
     <row r="209">
@@ -3356,10 +3356,10 @@
         <v>2007</v>
       </c>
       <c r="C209" t="n">
-        <v>99</v>
+        <v>112.0500000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>20.52</v>
+        <v>25.88355000000002</v>
       </c>
     </row>
     <row r="210">
@@ -3370,10 +3370,10 @@
         <v>2008</v>
       </c>
       <c r="C210" t="n">
-        <v>98</v>
+        <v>111.8666666666667</v>
       </c>
       <c r="D210" t="n">
-        <v>20.13454545454546</v>
+        <v>25.80391111111113</v>
       </c>
     </row>
     <row r="211">
@@ -3384,10 +3384,10 @@
         <v>2009</v>
       </c>
       <c r="C211" t="n">
-        <v>98</v>
+        <v>111.6833333333334</v>
       </c>
       <c r="D211" t="n">
-        <v>20.13454545454546</v>
+        <v>25.72439444444447</v>
       </c>
     </row>
     <row r="212">
@@ -3398,10 +3398,10 @@
         <v>2010</v>
       </c>
       <c r="C212" t="n">
-        <v>98</v>
+        <v>111.5000000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>20.13454545454546</v>
+        <v>25.64500000000002</v>
       </c>
     </row>
     <row r="213">
@@ -3412,10 +3412,10 @@
         <v>2011</v>
       </c>
       <c r="C213" t="n">
-        <v>98</v>
+        <v>111.3166666666667</v>
       </c>
       <c r="D213" t="n">
-        <v>20.13454545454546</v>
+        <v>25.56572777777781</v>
       </c>
     </row>
     <row r="214">
@@ -3426,10 +3426,10 @@
         <v>2012</v>
       </c>
       <c r="C214" t="n">
-        <v>98</v>
+        <v>111.1333333333334</v>
       </c>
       <c r="D214" t="n">
-        <v>20.13454545454546</v>
+        <v>25.4865777777778</v>
       </c>
     </row>
     <row r="215">
@@ -3440,10 +3440,10 @@
         <v>2013</v>
       </c>
       <c r="C215" t="n">
-        <v>98</v>
+        <v>110.9500000000001</v>
       </c>
       <c r="D215" t="n">
-        <v>20.13454545454546</v>
+        <v>25.40755000000003</v>
       </c>
     </row>
     <row r="216">
@@ -3454,10 +3454,10 @@
         <v>2014</v>
       </c>
       <c r="C216" t="n">
-        <v>98</v>
+        <v>110.7666666666667</v>
       </c>
       <c r="D216" t="n">
-        <v>20.13454545454546</v>
+        <v>25.32864444444447</v>
       </c>
     </row>
     <row r="217">
@@ -3468,10 +3468,10 @@
         <v>2015</v>
       </c>
       <c r="C217" t="n">
-        <v>97</v>
+        <v>110.5833333333334</v>
       </c>
       <c r="D217" t="n">
-        <v>19.75272727272727</v>
+        <v>25.24986111111113</v>
       </c>
     </row>
     <row r="218">
@@ -3482,10 +3482,10 @@
         <v>2016</v>
       </c>
       <c r="C218" t="n">
-        <v>97</v>
+        <v>110.4000000000001</v>
       </c>
       <c r="D218" t="n">
-        <v>19.75272727272727</v>
+        <v>25.17120000000002</v>
       </c>
     </row>
     <row r="219">
@@ -3496,10 +3496,10 @@
         <v>2017</v>
       </c>
       <c r="C219" t="n">
-        <v>97</v>
+        <v>110.2166666666667</v>
       </c>
       <c r="D219" t="n">
-        <v>19.75272727272727</v>
+        <v>25.09266111111113</v>
       </c>
     </row>
     <row r="220">
@@ -3510,10 +3510,10 @@
         <v>2018</v>
       </c>
       <c r="C220" t="n">
-        <v>97</v>
+        <v>110.0333333333334</v>
       </c>
       <c r="D220" t="n">
-        <v>19.75272727272727</v>
+        <v>25.01424444444447</v>
       </c>
     </row>
     <row r="221">
@@ -3524,10 +3524,10 @@
         <v>2019</v>
       </c>
       <c r="C221" t="n">
-        <v>97</v>
+        <v>109.8500000000001</v>
       </c>
       <c r="D221" t="n">
-        <v>19.75272727272727</v>
+        <v>24.93595000000003</v>
       </c>
     </row>
     <row r="222">
@@ -3538,10 +3538,10 @@
         <v>2020</v>
       </c>
       <c r="C222" t="n">
-        <v>97</v>
+        <v>109.6666666666667</v>
       </c>
       <c r="D222" t="n">
-        <v>19.75272727272727</v>
+        <v>24.8577777777778</v>
       </c>
     </row>
     <row r="223">
@@ -3552,10 +3552,10 @@
         <v>2021</v>
       </c>
       <c r="C223" t="n">
-        <v>97</v>
+        <v>109.4833333333334</v>
       </c>
       <c r="D223" t="n">
-        <v>19.75272727272727</v>
+        <v>24.7797277777778</v>
       </c>
     </row>
     <row r="224">
@@ -3566,10 +3566,10 @@
         <v>2022</v>
       </c>
       <c r="C224" t="n">
-        <v>97</v>
+        <v>109.3000000000001</v>
       </c>
       <c r="D224" t="n">
-        <v>19.75272727272727</v>
+        <v>24.70180000000002</v>
       </c>
     </row>
     <row r="225">
@@ -3580,10 +3580,10 @@
         <v>2023</v>
       </c>
       <c r="C225" t="n">
-        <v>97</v>
+        <v>109.1166666666667</v>
       </c>
       <c r="D225" t="n">
-        <v>19.75272727272727</v>
+        <v>24.62399444444447</v>
       </c>
     </row>
     <row r="226">
@@ -3594,10 +3594,10 @@
         <v>2024</v>
       </c>
       <c r="C226" t="n">
-        <v>97</v>
+        <v>108.9333333333334</v>
       </c>
       <c r="D226" t="n">
-        <v>19.75272727272727</v>
+        <v>24.54631111111113</v>
       </c>
     </row>
     <row r="227">
@@ -3608,10 +3608,10 @@
         <v>2025</v>
       </c>
       <c r="C227" t="n">
-        <v>97</v>
+        <v>108.7500000000001</v>
       </c>
       <c r="D227" t="n">
-        <v>19.75272727272727</v>
+        <v>24.46875000000002</v>
       </c>
     </row>
     <row r="228">
@@ -3622,10 +3622,10 @@
         <v>2026</v>
       </c>
       <c r="C228" t="n">
-        <v>96</v>
+        <v>108.5666666666667</v>
       </c>
       <c r="D228" t="n">
-        <v>19.37454545454545</v>
+        <v>24.39131111111114</v>
       </c>
     </row>
     <row r="229">
@@ -3636,10 +3636,10 @@
         <v>2027</v>
       </c>
       <c r="C229" t="n">
-        <v>96</v>
+        <v>108.3833333333334</v>
       </c>
       <c r="D229" t="n">
-        <v>19.37454545454545</v>
+        <v>24.31399444444447</v>
       </c>
     </row>
     <row r="230">
@@ -3650,10 +3650,10 @@
         <v>2028</v>
       </c>
       <c r="C230" t="n">
-        <v>96</v>
+        <v>108.2000000000001</v>
       </c>
       <c r="D230" t="n">
-        <v>19.37454545454545</v>
+        <v>24.23680000000002</v>
       </c>
     </row>
     <row r="231">
@@ -3664,10 +3664,10 @@
         <v>2029</v>
       </c>
       <c r="C231" t="n">
-        <v>96</v>
+        <v>108.0166666666667</v>
       </c>
       <c r="D231" t="n">
-        <v>19.37454545454545</v>
+        <v>24.1597277777778</v>
       </c>
     </row>
     <row r="232">
@@ -3678,10 +3678,10 @@
         <v>2030</v>
       </c>
       <c r="C232" t="n">
-        <v>96</v>
+        <v>107.8333333333334</v>
       </c>
       <c r="D232" t="n">
-        <v>19.37454545454545</v>
+        <v>24.0827777777778</v>
       </c>
     </row>
     <row r="233">
@@ -3692,10 +3692,10 @@
         <v>2031</v>
       </c>
       <c r="C233" t="n">
-        <v>96</v>
+        <v>107.6500000000001</v>
       </c>
       <c r="D233" t="n">
-        <v>19.37454545454545</v>
+        <v>24.00595000000003</v>
       </c>
     </row>
     <row r="234">
@@ -3706,10 +3706,10 @@
         <v>2032</v>
       </c>
       <c r="C234" t="n">
-        <v>96</v>
+        <v>107.4666666666668</v>
       </c>
       <c r="D234" t="n">
-        <v>19.37454545454545</v>
+        <v>23.92924444444447</v>
       </c>
     </row>
     <row r="235">
@@ -3720,10 +3720,10 @@
         <v>2033</v>
       </c>
       <c r="C235" t="n">
-        <v>96</v>
+        <v>107.2833333333334</v>
       </c>
       <c r="D235" t="n">
-        <v>19.37454545454545</v>
+        <v>23.85266111111114</v>
       </c>
     </row>
     <row r="236">
@@ -3734,10 +3734,10 @@
         <v>2034</v>
       </c>
       <c r="C236" t="n">
-        <v>96</v>
+        <v>107.1000000000001</v>
       </c>
       <c r="D236" t="n">
-        <v>19.37454545454545</v>
+        <v>23.77620000000003</v>
       </c>
     </row>
     <row r="237">
@@ -3748,10 +3748,10 @@
         <v>2035</v>
       </c>
       <c r="C237" t="n">
-        <v>96</v>
+        <v>106.9166666666667</v>
       </c>
       <c r="D237" t="n">
-        <v>19.37454545454545</v>
+        <v>23.69986111111114</v>
       </c>
     </row>
     <row r="238">
@@ -3762,10 +3762,10 @@
         <v>2036</v>
       </c>
       <c r="C238" t="n">
-        <v>96</v>
+        <v>106.7333333333334</v>
       </c>
       <c r="D238" t="n">
-        <v>19.37454545454545</v>
+        <v>23.62364444444447</v>
       </c>
     </row>
     <row r="239">
@@ -3776,10 +3776,10 @@
         <v>2037</v>
       </c>
       <c r="C239" t="n">
-        <v>96</v>
+        <v>106.5500000000001</v>
       </c>
       <c r="D239" t="n">
-        <v>19.37454545454545</v>
+        <v>23.54755000000003</v>
       </c>
     </row>
     <row r="240">
@@ -3790,10 +3790,10 @@
         <v>2038</v>
       </c>
       <c r="C240" t="n">
-        <v>96</v>
+        <v>106.3666666666668</v>
       </c>
       <c r="D240" t="n">
-        <v>19.37454545454545</v>
+        <v>23.47157777777781</v>
       </c>
     </row>
     <row r="241">
@@ -3804,10 +3804,10 @@
         <v>2039</v>
       </c>
       <c r="C241" t="n">
-        <v>96</v>
+        <v>106.1833333333334</v>
       </c>
       <c r="D241" t="n">
-        <v>19.37454545454545</v>
+        <v>23.3957277777778</v>
       </c>
     </row>
     <row r="242">
@@ -3818,10 +3818,10 @@
         <v>2040</v>
       </c>
       <c r="C242" t="n">
-        <v>96</v>
+        <v>106.0000000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>19.37454545454545</v>
+        <v>23.32000000000003</v>
       </c>
     </row>
     <row r="243">
@@ -3832,10 +3832,10 @@
         <v>2041</v>
       </c>
       <c r="C243" t="n">
-        <v>96</v>
+        <v>105.8166666666667</v>
       </c>
       <c r="D243" t="n">
-        <v>19.37454545454545</v>
+        <v>23.24439444444447</v>
       </c>
     </row>
     <row r="244">
@@ -3846,10 +3846,10 @@
         <v>2042</v>
       </c>
       <c r="C244" t="n">
-        <v>96</v>
+        <v>105.6333333333334</v>
       </c>
       <c r="D244" t="n">
-        <v>19.37454545454545</v>
+        <v>23.16891111111114</v>
       </c>
     </row>
     <row r="245">
@@ -3860,10 +3860,10 @@
         <v>2043</v>
       </c>
       <c r="C245" t="n">
-        <v>96</v>
+        <v>105.4500000000001</v>
       </c>
       <c r="D245" t="n">
-        <v>19.37454545454545</v>
+        <v>23.09355000000003</v>
       </c>
     </row>
     <row r="246">
@@ -3874,10 +3874,10 @@
         <v>2044</v>
       </c>
       <c r="C246" t="n">
-        <v>96</v>
+        <v>105.2666666666668</v>
       </c>
       <c r="D246" t="n">
-        <v>19.37454545454545</v>
+        <v>23.01831111111114</v>
       </c>
     </row>
     <row r="247">
@@ -3888,10 +3888,10 @@
         <v>2045</v>
       </c>
       <c r="C247" t="n">
-        <v>96</v>
+        <v>105.0833333333334</v>
       </c>
       <c r="D247" t="n">
-        <v>19.37454545454545</v>
+        <v>22.94319444444447</v>
       </c>
     </row>
     <row r="248">
@@ -3902,10 +3902,10 @@
         <v>2046</v>
       </c>
       <c r="C248" t="n">
-        <v>96</v>
+        <v>104.9000000000001</v>
       </c>
       <c r="D248" t="n">
-        <v>19.37454545454545</v>
+        <v>22.86820000000003</v>
       </c>
     </row>
     <row r="249">
@@ -3916,10 +3916,10 @@
         <v>2047</v>
       </c>
       <c r="C249" t="n">
-        <v>96</v>
+        <v>104.7166666666668</v>
       </c>
       <c r="D249" t="n">
-        <v>19.37454545454545</v>
+        <v>22.7933277777778</v>
       </c>
     </row>
     <row r="250">
@@ -3930,10 +3930,10 @@
         <v>2048</v>
       </c>
       <c r="C250" t="n">
-        <v>96</v>
+        <v>104.5333333333334</v>
       </c>
       <c r="D250" t="n">
-        <v>19.37454545454545</v>
+        <v>22.7185777777778</v>
       </c>
     </row>
     <row r="251">
@@ -3944,10 +3944,10 @@
         <v>2049</v>
       </c>
       <c r="C251" t="n">
-        <v>96</v>
+        <v>104.3500000000001</v>
       </c>
       <c r="D251" t="n">
-        <v>19.37454545454545</v>
+        <v>22.64395000000003</v>
       </c>
     </row>
     <row r="252">
@@ -3958,10 +3958,10 @@
         <v>2050</v>
       </c>
       <c r="C252" t="n">
-        <v>96</v>
+        <v>104.1666666666668</v>
       </c>
       <c r="D252" t="n">
-        <v>19.37454545454545</v>
+        <v>22.56944444444447</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cleaned_and_combined_data/Dwelling_Lifetime/Cleaned_Dwelling_Lifetime.xlsx
+++ b/Data/cleaned_and_combined_data/Dwelling_Lifetime/Cleaned_Dwelling_Lifetime.xlsx
@@ -472,10 +472,10 @@
         <v>1801</v>
       </c>
       <c r="C3" t="n">
-        <v>149.8166666666667</v>
+        <v>150</v>
       </c>
       <c r="D3" t="n">
-        <v>44.8950611111111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>1802</v>
       </c>
       <c r="C4" t="n">
-        <v>149.6333333333333</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>44.79024444444444</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>1803</v>
       </c>
       <c r="C5" t="n">
-        <v>149.45</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>44.68554999999999</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>1804</v>
       </c>
       <c r="C6" t="n">
-        <v>149.2666666666667</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>44.58097777777778</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>1805</v>
       </c>
       <c r="C7" t="n">
-        <v>149.0833333333333</v>
+        <v>150</v>
       </c>
       <c r="D7" t="n">
-        <v>44.47652777777778</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>1806</v>
       </c>
       <c r="C8" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="D8" t="n">
-        <v>44.3722</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>1807</v>
       </c>
       <c r="C9" t="n">
-        <v>148.7166666666667</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
-        <v>44.26799444444444</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>1808</v>
       </c>
       <c r="C10" t="n">
-        <v>148.5333333333333</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
-        <v>44.16391111111111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>1809</v>
       </c>
       <c r="C11" t="n">
-        <v>148.35</v>
+        <v>150</v>
       </c>
       <c r="D11" t="n">
-        <v>44.05994999999999</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>1810</v>
       </c>
       <c r="C12" t="n">
-        <v>148.1666666666667</v>
+        <v>150</v>
       </c>
       <c r="D12" t="n">
-        <v>43.95611111111111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>1811</v>
       </c>
       <c r="C13" t="n">
-        <v>147.9833333333333</v>
+        <v>150</v>
       </c>
       <c r="D13" t="n">
-        <v>43.85239444444445</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>1812</v>
       </c>
       <c r="C14" t="n">
-        <v>147.8</v>
+        <v>150</v>
       </c>
       <c r="D14" t="n">
-        <v>43.7488</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>1813</v>
       </c>
       <c r="C15" t="n">
-        <v>147.6166666666667</v>
+        <v>150</v>
       </c>
       <c r="D15" t="n">
-        <v>43.64532777777777</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>1814</v>
       </c>
       <c r="C16" t="n">
-        <v>147.4333333333333</v>
+        <v>150</v>
       </c>
       <c r="D16" t="n">
-        <v>43.54197777777778</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>1815</v>
       </c>
       <c r="C17" t="n">
-        <v>147.25</v>
+        <v>150</v>
       </c>
       <c r="D17" t="n">
-        <v>43.43875</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>1816</v>
       </c>
       <c r="C18" t="n">
-        <v>147.0666666666667</v>
+        <v>150</v>
       </c>
       <c r="D18" t="n">
-        <v>43.33564444444445</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>1817</v>
       </c>
       <c r="C19" t="n">
-        <v>146.8833333333333</v>
+        <v>150</v>
       </c>
       <c r="D19" t="n">
-        <v>43.23266111111111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>1818</v>
       </c>
       <c r="C20" t="n">
-        <v>146.7</v>
+        <v>150</v>
       </c>
       <c r="D20" t="n">
-        <v>43.1298</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>1819</v>
       </c>
       <c r="C21" t="n">
-        <v>146.5166666666667</v>
+        <v>150</v>
       </c>
       <c r="D21" t="n">
-        <v>43.02706111111112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>1820</v>
       </c>
       <c r="C22" t="n">
-        <v>146.3333333333333</v>
+        <v>150</v>
       </c>
       <c r="D22" t="n">
-        <v>42.92444444444445</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>1821</v>
       </c>
       <c r="C23" t="n">
-        <v>146.15</v>
+        <v>150</v>
       </c>
       <c r="D23" t="n">
-        <v>42.82195</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>1822</v>
       </c>
       <c r="C24" t="n">
-        <v>145.9666666666667</v>
+        <v>150</v>
       </c>
       <c r="D24" t="n">
-        <v>42.71957777777778</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>1823</v>
       </c>
       <c r="C25" t="n">
-        <v>145.7833333333333</v>
+        <v>150</v>
       </c>
       <c r="D25" t="n">
-        <v>42.61732777777777</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>1824</v>
       </c>
       <c r="C26" t="n">
-        <v>145.6</v>
+        <v>150</v>
       </c>
       <c r="D26" t="n">
-        <v>42.51520000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>1825</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4166666666667</v>
+        <v>150</v>
       </c>
       <c r="D27" t="n">
-        <v>42.41319444444445</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>1826</v>
       </c>
       <c r="C28" t="n">
-        <v>145.2333333333333</v>
+        <v>149</v>
       </c>
       <c r="D28" t="n">
-        <v>42.31131111111112</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>1827</v>
       </c>
       <c r="C29" t="n">
-        <v>145.05</v>
+        <v>149</v>
       </c>
       <c r="D29" t="n">
-        <v>42.20955</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>1828</v>
       </c>
       <c r="C30" t="n">
-        <v>144.8666666666667</v>
+        <v>149</v>
       </c>
       <c r="D30" t="n">
-        <v>42.10791111111111</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>1829</v>
       </c>
       <c r="C31" t="n">
-        <v>144.6833333333333</v>
+        <v>149</v>
       </c>
       <c r="D31" t="n">
-        <v>42.00639444444445</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>1830</v>
       </c>
       <c r="C32" t="n">
-        <v>144.5</v>
+        <v>149</v>
       </c>
       <c r="D32" t="n">
-        <v>41.90499999999999</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>1831</v>
       </c>
       <c r="C33" t="n">
-        <v>144.3166666666667</v>
+        <v>149</v>
       </c>
       <c r="D33" t="n">
-        <v>41.80372777777778</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>1832</v>
       </c>
       <c r="C34" t="n">
-        <v>144.1333333333334</v>
+        <v>149</v>
       </c>
       <c r="D34" t="n">
-        <v>41.70257777777778</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>1833</v>
       </c>
       <c r="C35" t="n">
-        <v>143.95</v>
+        <v>149</v>
       </c>
       <c r="D35" t="n">
-        <v>41.60155</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>1834</v>
       </c>
       <c r="C36" t="n">
-        <v>143.7666666666667</v>
+        <v>149</v>
       </c>
       <c r="D36" t="n">
-        <v>41.50064444444445</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>1835</v>
       </c>
       <c r="C37" t="n">
-        <v>143.5833333333333</v>
+        <v>149</v>
       </c>
       <c r="D37" t="n">
-        <v>41.39986111111111</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>1836</v>
       </c>
       <c r="C38" t="n">
-        <v>143.4</v>
+        <v>149</v>
       </c>
       <c r="D38" t="n">
-        <v>41.2992</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>1837</v>
       </c>
       <c r="C39" t="n">
-        <v>143.2166666666667</v>
+        <v>149</v>
       </c>
       <c r="D39" t="n">
-        <v>41.19866111111111</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>1838</v>
       </c>
       <c r="C40" t="n">
-        <v>143.0333333333334</v>
+        <v>149</v>
       </c>
       <c r="D40" t="n">
-        <v>41.09824444444445</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>1839</v>
       </c>
       <c r="C41" t="n">
-        <v>142.85</v>
+        <v>149</v>
       </c>
       <c r="D41" t="n">
-        <v>40.99795</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>1840</v>
       </c>
       <c r="C42" t="n">
-        <v>142.6666666666667</v>
+        <v>149</v>
       </c>
       <c r="D42" t="n">
-        <v>40.89777777777778</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>1841</v>
       </c>
       <c r="C43" t="n">
-        <v>142.4833333333333</v>
+        <v>149</v>
       </c>
       <c r="D43" t="n">
-        <v>40.79772777777778</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>1842</v>
       </c>
       <c r="C44" t="n">
-        <v>142.3</v>
+        <v>149</v>
       </c>
       <c r="D44" t="n">
-        <v>40.6978</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>1843</v>
       </c>
       <c r="C45" t="n">
-        <v>142.1166666666667</v>
+        <v>149</v>
       </c>
       <c r="D45" t="n">
-        <v>40.59799444444445</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>1844</v>
       </c>
       <c r="C46" t="n">
-        <v>141.9333333333333</v>
+        <v>149</v>
       </c>
       <c r="D46" t="n">
-        <v>40.49831111111111</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>1845</v>
       </c>
       <c r="C47" t="n">
-        <v>141.75</v>
+        <v>149</v>
       </c>
       <c r="D47" t="n">
-        <v>40.39875000000001</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>1846</v>
       </c>
       <c r="C48" t="n">
-        <v>141.5666666666667</v>
+        <v>149</v>
       </c>
       <c r="D48" t="n">
-        <v>40.29931111111112</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>1847</v>
       </c>
       <c r="C49" t="n">
-        <v>141.3833333333334</v>
+        <v>149</v>
       </c>
       <c r="D49" t="n">
-        <v>40.19999444444445</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>1848</v>
       </c>
       <c r="C50" t="n">
-        <v>141.2</v>
+        <v>149</v>
       </c>
       <c r="D50" t="n">
-        <v>40.10080000000001</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>1849</v>
       </c>
       <c r="C51" t="n">
-        <v>141.0166666666667</v>
+        <v>149</v>
       </c>
       <c r="D51" t="n">
-        <v>40.00172777777778</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>1850</v>
       </c>
       <c r="C52" t="n">
-        <v>140.8333333333333</v>
+        <v>149</v>
       </c>
       <c r="D52" t="n">
-        <v>39.90277777777778</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>1851</v>
       </c>
       <c r="C53" t="n">
-        <v>140.65</v>
+        <v>149</v>
       </c>
       <c r="D53" t="n">
-        <v>39.80395000000001</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>1852</v>
       </c>
       <c r="C54" t="n">
-        <v>140.4666666666667</v>
+        <v>149</v>
       </c>
       <c r="D54" t="n">
-        <v>39.70524444444445</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>1853</v>
       </c>
       <c r="C55" t="n">
-        <v>140.2833333333334</v>
+        <v>149</v>
       </c>
       <c r="D55" t="n">
-        <v>39.60666111111112</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>1854</v>
       </c>
       <c r="C56" t="n">
-        <v>140.1</v>
+        <v>149</v>
       </c>
       <c r="D56" t="n">
-        <v>39.50820000000001</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>1855</v>
       </c>
       <c r="C57" t="n">
-        <v>139.9166666666667</v>
+        <v>149</v>
       </c>
       <c r="D57" t="n">
-        <v>39.40986111111112</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>1856</v>
       </c>
       <c r="C58" t="n">
-        <v>139.7333333333333</v>
+        <v>149</v>
       </c>
       <c r="D58" t="n">
-        <v>39.31164444444445</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>1857</v>
       </c>
       <c r="C59" t="n">
-        <v>139.55</v>
+        <v>149</v>
       </c>
       <c r="D59" t="n">
-        <v>39.21355000000001</v>
+        <v>44.4290909090909</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>1858</v>
       </c>
       <c r="C60" t="n">
-        <v>139.3666666666667</v>
+        <v>148</v>
       </c>
       <c r="D60" t="n">
-        <v>39.11557777777778</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>1859</v>
       </c>
       <c r="C61" t="n">
-        <v>139.1833333333334</v>
+        <v>148</v>
       </c>
       <c r="D61" t="n">
-        <v>39.01772777777779</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>1860</v>
       </c>
       <c r="C62" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D62" t="n">
-        <v>38.92000000000001</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>1861</v>
       </c>
       <c r="C63" t="n">
-        <v>138.8166666666667</v>
+        <v>148</v>
       </c>
       <c r="D63" t="n">
-        <v>38.82239444444446</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>1862</v>
       </c>
       <c r="C64" t="n">
-        <v>138.6333333333334</v>
+        <v>148</v>
       </c>
       <c r="D64" t="n">
-        <v>38.72491111111111</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>1863</v>
       </c>
       <c r="C65" t="n">
-        <v>138.45</v>
+        <v>148</v>
       </c>
       <c r="D65" t="n">
-        <v>38.62755000000001</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>1864</v>
       </c>
       <c r="C66" t="n">
-        <v>138.2666666666667</v>
+        <v>148</v>
       </c>
       <c r="D66" t="n">
-        <v>38.53031111111112</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>1865</v>
       </c>
       <c r="C67" t="n">
-        <v>138.0833333333333</v>
+        <v>148</v>
       </c>
       <c r="D67" t="n">
-        <v>38.43319444444445</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>1866</v>
       </c>
       <c r="C68" t="n">
-        <v>137.9</v>
+        <v>148</v>
       </c>
       <c r="D68" t="n">
-        <v>38.33620000000001</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>1867</v>
       </c>
       <c r="C69" t="n">
-        <v>137.7166666666667</v>
+        <v>148</v>
       </c>
       <c r="D69" t="n">
-        <v>38.23932777777779</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>1868</v>
       </c>
       <c r="C70" t="n">
-        <v>137.5333333333334</v>
+        <v>148</v>
       </c>
       <c r="D70" t="n">
-        <v>38.14257777777778</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>1869</v>
       </c>
       <c r="C71" t="n">
-        <v>137.35</v>
+        <v>148</v>
       </c>
       <c r="D71" t="n">
-        <v>38.04595000000001</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>1870</v>
       </c>
       <c r="C72" t="n">
-        <v>137.1666666666667</v>
+        <v>148</v>
       </c>
       <c r="D72" t="n">
-        <v>37.94944444444445</v>
+        <v>43.86181818181819</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>1871</v>
       </c>
       <c r="C73" t="n">
-        <v>136.9833333333333</v>
+        <v>147</v>
       </c>
       <c r="D73" t="n">
-        <v>37.85306111111111</v>
+        <v>43.29818181818182</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>1872</v>
       </c>
       <c r="C74" t="n">
-        <v>136.8</v>
+        <v>147</v>
       </c>
       <c r="D74" t="n">
-        <v>37.75680000000001</v>
+        <v>43.29818181818182</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>1873</v>
       </c>
       <c r="C75" t="n">
-        <v>136.6166666666667</v>
+        <v>147</v>
       </c>
       <c r="D75" t="n">
-        <v>37.66066111111112</v>
+        <v>43.29818181818182</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>1874</v>
       </c>
       <c r="C76" t="n">
-        <v>136.4333333333334</v>
+        <v>147</v>
       </c>
       <c r="D76" t="n">
-        <v>37.56464444444445</v>
+        <v>43.29818181818182</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>1875</v>
       </c>
       <c r="C77" t="n">
-        <v>136.25</v>
+        <v>147</v>
       </c>
       <c r="D77" t="n">
-        <v>37.46875000000001</v>
+        <v>43.29818181818182</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>1876</v>
       </c>
       <c r="C78" t="n">
-        <v>136.0666666666667</v>
+        <v>147</v>
       </c>
       <c r="D78" t="n">
-        <v>37.37297777777778</v>
+        <v>43.29818181818182</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>1877</v>
       </c>
       <c r="C79" t="n">
-        <v>135.8833333333334</v>
+        <v>147</v>
       </c>
       <c r="D79" t="n">
-        <v>37.27732777777779</v>
+        <v>43.29818181818182</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>1878</v>
       </c>
       <c r="C80" t="n">
-        <v>135.7</v>
+        <v>146</v>
       </c>
       <c r="D80" t="n">
-        <v>37.18180000000001</v>
+        <v>42.73818181818181</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>1879</v>
       </c>
       <c r="C81" t="n">
-        <v>135.5166666666667</v>
+        <v>146</v>
       </c>
       <c r="D81" t="n">
-        <v>37.08639444444446</v>
+        <v>42.73818181818181</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>1880</v>
       </c>
       <c r="C82" t="n">
-        <v>135.3333333333334</v>
+        <v>146</v>
       </c>
       <c r="D82" t="n">
-        <v>36.99111111111112</v>
+        <v>42.73818181818181</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>1881</v>
       </c>
       <c r="C83" t="n">
-        <v>135.15</v>
+        <v>146</v>
       </c>
       <c r="D83" t="n">
-        <v>36.89595000000001</v>
+        <v>42.73818181818181</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>1882</v>
       </c>
       <c r="C84" t="n">
-        <v>134.9666666666667</v>
+        <v>145</v>
       </c>
       <c r="D84" t="n">
-        <v>36.80091111111112</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>1883</v>
       </c>
       <c r="C85" t="n">
-        <v>134.7833333333334</v>
+        <v>145</v>
       </c>
       <c r="D85" t="n">
-        <v>36.70599444444446</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>1884</v>
       </c>
       <c r="C86" t="n">
-        <v>134.6</v>
+        <v>145</v>
       </c>
       <c r="D86" t="n">
-        <v>36.61120000000001</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>1885</v>
       </c>
       <c r="C87" t="n">
-        <v>134.4166666666667</v>
+        <v>145</v>
       </c>
       <c r="D87" t="n">
-        <v>36.51652777777778</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>1886</v>
       </c>
       <c r="C88" t="n">
-        <v>134.2333333333333</v>
+        <v>145</v>
       </c>
       <c r="D88" t="n">
-        <v>36.42197777777778</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>1887</v>
       </c>
       <c r="C89" t="n">
-        <v>134.05</v>
+        <v>145</v>
       </c>
       <c r="D89" t="n">
-        <v>36.32755000000002</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>1888</v>
       </c>
       <c r="C90" t="n">
-        <v>133.8666666666667</v>
+        <v>145</v>
       </c>
       <c r="D90" t="n">
-        <v>36.23324444444445</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>1889</v>
       </c>
       <c r="C91" t="n">
-        <v>133.6833333333334</v>
+        <v>145</v>
       </c>
       <c r="D91" t="n">
-        <v>36.13906111111113</v>
+        <v>42.18181818181818</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>1890</v>
       </c>
       <c r="C92" t="n">
-        <v>133.5</v>
+        <v>144</v>
       </c>
       <c r="D92" t="n">
-        <v>36.04500000000001</v>
+        <v>41.62909090909091</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>1891</v>
       </c>
       <c r="C93" t="n">
-        <v>133.3166666666667</v>
+        <v>144</v>
       </c>
       <c r="D93" t="n">
-        <v>35.95106111111112</v>
+        <v>41.62909090909091</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>1892</v>
       </c>
       <c r="C94" t="n">
-        <v>133.1333333333334</v>
+        <v>144</v>
       </c>
       <c r="D94" t="n">
-        <v>35.85724444444445</v>
+        <v>41.62909090909091</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>1893</v>
       </c>
       <c r="C95" t="n">
-        <v>132.95</v>
+        <v>144</v>
       </c>
       <c r="D95" t="n">
-        <v>35.76355000000002</v>
+        <v>41.62909090909091</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>1894</v>
       </c>
       <c r="C96" t="n">
-        <v>132.7666666666667</v>
+        <v>144</v>
       </c>
       <c r="D96" t="n">
-        <v>35.66997777777779</v>
+        <v>41.62909090909091</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>1895</v>
       </c>
       <c r="C97" t="n">
-        <v>132.5833333333334</v>
+        <v>143</v>
       </c>
       <c r="D97" t="n">
-        <v>35.57652777777779</v>
+        <v>41.07999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>1896</v>
       </c>
       <c r="C98" t="n">
-        <v>132.4</v>
+        <v>143</v>
       </c>
       <c r="D98" t="n">
-        <v>35.48320000000001</v>
+        <v>41.07999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>1897</v>
       </c>
       <c r="C99" t="n">
-        <v>132.2166666666667</v>
+        <v>143</v>
       </c>
       <c r="D99" t="n">
-        <v>35.38999444444446</v>
+        <v>41.07999999999999</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>1898</v>
       </c>
       <c r="C100" t="n">
-        <v>132.0333333333334</v>
+        <v>142</v>
       </c>
       <c r="D100" t="n">
-        <v>35.29691111111112</v>
+        <v>40.53454545454546</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>1899</v>
       </c>
       <c r="C101" t="n">
-        <v>131.85</v>
+        <v>142</v>
       </c>
       <c r="D101" t="n">
-        <v>35.20395000000001</v>
+        <v>40.53454545454546</v>
       </c>
     </row>
     <row r="102">
@@ -1858,10 +1858,10 @@
         <v>1900</v>
       </c>
       <c r="C102" t="n">
-        <v>131.6666666666667</v>
+        <v>142</v>
       </c>
       <c r="D102" t="n">
-        <v>35.11111111111112</v>
+        <v>40.53454545454546</v>
       </c>
     </row>
     <row r="103">
@@ -1872,10 +1872,10 @@
         <v>1901</v>
       </c>
       <c r="C103" t="n">
-        <v>131.4833333333334</v>
+        <v>141</v>
       </c>
       <c r="D103" t="n">
-        <v>35.01839444444446</v>
+        <v>39.99272727272727</v>
       </c>
     </row>
     <row r="104">
@@ -1886,10 +1886,10 @@
         <v>1902</v>
       </c>
       <c r="C104" t="n">
-        <v>131.3</v>
+        <v>141</v>
       </c>
       <c r="D104" t="n">
-        <v>34.92580000000001</v>
+        <v>39.99272727272727</v>
       </c>
     </row>
     <row r="105">
@@ -1900,10 +1900,10 @@
         <v>1903</v>
       </c>
       <c r="C105" t="n">
-        <v>131.1166666666667</v>
+        <v>140</v>
       </c>
       <c r="D105" t="n">
-        <v>34.8333277777778</v>
+        <v>39.45454545454545</v>
       </c>
     </row>
     <row r="106">
@@ -1914,10 +1914,10 @@
         <v>1904</v>
       </c>
       <c r="C106" t="n">
-        <v>130.9333333333334</v>
+        <v>140</v>
       </c>
       <c r="D106" t="n">
-        <v>34.74097777777779</v>
+        <v>39.45454545454545</v>
       </c>
     </row>
     <row r="107">
@@ -1928,10 +1928,10 @@
         <v>1905</v>
       </c>
       <c r="C107" t="n">
-        <v>130.75</v>
+        <v>140</v>
       </c>
       <c r="D107" t="n">
-        <v>34.64875000000001</v>
+        <v>39.45454545454545</v>
       </c>
     </row>
     <row r="108">
@@ -1942,10 +1942,10 @@
         <v>1906</v>
       </c>
       <c r="C108" t="n">
-        <v>130.5666666666667</v>
+        <v>140</v>
       </c>
       <c r="D108" t="n">
-        <v>34.55664444444446</v>
+        <v>39.45454545454545</v>
       </c>
     </row>
     <row r="109">
@@ -1956,10 +1956,10 @@
         <v>1907</v>
       </c>
       <c r="C109" t="n">
-        <v>130.3833333333334</v>
+        <v>139</v>
       </c>
       <c r="D109" t="n">
-        <v>34.46466111111113</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="110">
@@ -1970,10 +1970,10 @@
         <v>1908</v>
       </c>
       <c r="C110" t="n">
-        <v>130.2</v>
+        <v>139</v>
       </c>
       <c r="D110" t="n">
-        <v>34.37280000000001</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="111">
@@ -1984,10 +1984,10 @@
         <v>1909</v>
       </c>
       <c r="C111" t="n">
-        <v>130.0166666666667</v>
+        <v>139</v>
       </c>
       <c r="D111" t="n">
-        <v>34.28106111111113</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="112">
@@ -1998,10 +1998,10 @@
         <v>1910</v>
       </c>
       <c r="C112" t="n">
-        <v>129.8333333333334</v>
+        <v>138</v>
       </c>
       <c r="D112" t="n">
-        <v>34.18944444444446</v>
+        <v>38.38909090909091</v>
       </c>
     </row>
     <row r="113">
@@ -2012,10 +2012,10 @@
         <v>1911</v>
       </c>
       <c r="C113" t="n">
-        <v>129.65</v>
+        <v>138</v>
       </c>
       <c r="D113" t="n">
-        <v>34.09795000000001</v>
+        <v>38.38909090909091</v>
       </c>
     </row>
     <row r="114">
@@ -2026,10 +2026,10 @@
         <v>1912</v>
       </c>
       <c r="C114" t="n">
-        <v>129.4666666666667</v>
+        <v>137</v>
       </c>
       <c r="D114" t="n">
-        <v>34.00657777777779</v>
+        <v>37.86181818181818</v>
       </c>
     </row>
     <row r="115">
@@ -2040,10 +2040,10 @@
         <v>1913</v>
       </c>
       <c r="C115" t="n">
-        <v>129.2833333333334</v>
+        <v>137</v>
       </c>
       <c r="D115" t="n">
-        <v>33.91532777777779</v>
+        <v>37.86181818181818</v>
       </c>
     </row>
     <row r="116">
@@ -2054,10 +2054,10 @@
         <v>1914</v>
       </c>
       <c r="C116" t="n">
-        <v>129.1000000000001</v>
+        <v>136</v>
       </c>
       <c r="D116" t="n">
-        <v>33.82420000000001</v>
+        <v>37.33818181818182</v>
       </c>
     </row>
     <row r="117">
@@ -2068,10 +2068,10 @@
         <v>1915</v>
       </c>
       <c r="C117" t="n">
-        <v>128.9166666666667</v>
+        <v>136</v>
       </c>
       <c r="D117" t="n">
-        <v>33.73319444444446</v>
+        <v>37.33818181818182</v>
       </c>
     </row>
     <row r="118">
@@ -2082,10 +2082,10 @@
         <v>1916</v>
       </c>
       <c r="C118" t="n">
-        <v>128.7333333333334</v>
+        <v>135</v>
       </c>
       <c r="D118" t="n">
-        <v>33.64231111111113</v>
+        <v>36.81818181818181</v>
       </c>
     </row>
     <row r="119">
@@ -2096,10 +2096,10 @@
         <v>1917</v>
       </c>
       <c r="C119" t="n">
-        <v>128.55</v>
+        <v>135</v>
       </c>
       <c r="D119" t="n">
-        <v>33.55155000000001</v>
+        <v>36.81818181818181</v>
       </c>
     </row>
     <row r="120">
@@ -2110,10 +2110,10 @@
         <v>1918</v>
       </c>
       <c r="C120" t="n">
-        <v>128.3666666666667</v>
+        <v>134</v>
       </c>
       <c r="D120" t="n">
-        <v>33.46091111111112</v>
+        <v>36.30181818181818</v>
       </c>
     </row>
     <row r="121">
@@ -2124,10 +2124,10 @@
         <v>1919</v>
       </c>
       <c r="C121" t="n">
-        <v>128.1833333333334</v>
+        <v>134</v>
       </c>
       <c r="D121" t="n">
-        <v>33.37039444444446</v>
+        <v>36.30181818181818</v>
       </c>
     </row>
     <row r="122">
@@ -2138,10 +2138,10 @@
         <v>1920</v>
       </c>
       <c r="C122" t="n">
-        <v>128.0000000000001</v>
+        <v>134</v>
       </c>
       <c r="D122" t="n">
-        <v>33.28000000000002</v>
+        <v>36.30181818181818</v>
       </c>
     </row>
     <row r="123">
@@ -2152,10 +2152,10 @@
         <v>1921</v>
       </c>
       <c r="C123" t="n">
-        <v>127.8166666666667</v>
+        <v>133</v>
       </c>
       <c r="D123" t="n">
-        <v>33.18972777777779</v>
+        <v>35.78909090909091</v>
       </c>
     </row>
     <row r="124">
@@ -2166,10 +2166,10 @@
         <v>1922</v>
       </c>
       <c r="C124" t="n">
-        <v>127.6333333333334</v>
+        <v>133</v>
       </c>
       <c r="D124" t="n">
-        <v>33.0995777777778</v>
+        <v>35.78909090909091</v>
       </c>
     </row>
     <row r="125">
@@ -2180,10 +2180,10 @@
         <v>1923</v>
       </c>
       <c r="C125" t="n">
-        <v>127.45</v>
+        <v>133</v>
       </c>
       <c r="D125" t="n">
-        <v>33.00955000000001</v>
+        <v>35.78909090909091</v>
       </c>
     </row>
     <row r="126">
@@ -2194,10 +2194,10 @@
         <v>1924</v>
       </c>
       <c r="C126" t="n">
-        <v>127.2666666666667</v>
+        <v>132</v>
       </c>
       <c r="D126" t="n">
-        <v>32.91964444444446</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="127">
@@ -2208,10 +2208,10 @@
         <v>1925</v>
       </c>
       <c r="C127" t="n">
-        <v>127.0833333333334</v>
+        <v>132</v>
       </c>
       <c r="D127" t="n">
-        <v>32.82986111111112</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="128">
@@ -2222,10 +2222,10 @@
         <v>1926</v>
       </c>
       <c r="C128" t="n">
-        <v>126.9</v>
+        <v>131</v>
       </c>
       <c r="D128" t="n">
-        <v>32.74020000000002</v>
+        <v>34.77454545454545</v>
       </c>
     </row>
     <row r="129">
@@ -2236,10 +2236,10 @@
         <v>1927</v>
       </c>
       <c r="C129" t="n">
-        <v>126.7166666666667</v>
+        <v>131</v>
       </c>
       <c r="D129" t="n">
-        <v>32.65066111111113</v>
+        <v>34.77454545454545</v>
       </c>
     </row>
     <row r="130">
@@ -2250,10 +2250,10 @@
         <v>1928</v>
       </c>
       <c r="C130" t="n">
-        <v>126.5333333333334</v>
+        <v>130</v>
       </c>
       <c r="D130" t="n">
-        <v>32.56124444444445</v>
+        <v>34.27272727272727</v>
       </c>
     </row>
     <row r="131">
@@ -2264,10 +2264,10 @@
         <v>1929</v>
       </c>
       <c r="C131" t="n">
-        <v>126.3500000000001</v>
+        <v>129</v>
       </c>
       <c r="D131" t="n">
-        <v>32.47195000000001</v>
+        <v>33.77454545454546</v>
       </c>
     </row>
     <row r="132">
@@ -2278,10 +2278,10 @@
         <v>1930</v>
       </c>
       <c r="C132" t="n">
-        <v>126.1666666666667</v>
+        <v>129</v>
       </c>
       <c r="D132" t="n">
-        <v>32.3827777777778</v>
+        <v>33.77454545454546</v>
       </c>
     </row>
     <row r="133">
@@ -2292,10 +2292,10 @@
         <v>1931</v>
       </c>
       <c r="C133" t="n">
-        <v>125.9833333333334</v>
+        <v>128</v>
       </c>
       <c r="D133" t="n">
-        <v>32.29372777777779</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="134">
@@ -2306,10 +2306,10 @@
         <v>1932</v>
       </c>
       <c r="C134" t="n">
-        <v>125.8</v>
+        <v>128</v>
       </c>
       <c r="D134" t="n">
-        <v>32.20480000000001</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="135">
@@ -2320,10 +2320,10 @@
         <v>1933</v>
       </c>
       <c r="C135" t="n">
-        <v>125.6166666666667</v>
+        <v>127</v>
       </c>
       <c r="D135" t="n">
-        <v>32.11599444444446</v>
+        <v>32.78909090909091</v>
       </c>
     </row>
     <row r="136">
@@ -2334,10 +2334,10 @@
         <v>1934</v>
       </c>
       <c r="C136" t="n">
-        <v>125.4333333333334</v>
+        <v>127</v>
       </c>
       <c r="D136" t="n">
-        <v>32.02731111111112</v>
+        <v>32.78909090909091</v>
       </c>
     </row>
     <row r="137">
@@ -2348,10 +2348,10 @@
         <v>1935</v>
       </c>
       <c r="C137" t="n">
-        <v>125.25</v>
+        <v>126</v>
       </c>
       <c r="D137" t="n">
-        <v>31.93875000000001</v>
+        <v>32.30181818181818</v>
       </c>
     </row>
     <row r="138">
@@ -2362,10 +2362,10 @@
         <v>1936</v>
       </c>
       <c r="C138" t="n">
-        <v>125.0666666666667</v>
+        <v>126</v>
       </c>
       <c r="D138" t="n">
-        <v>31.85031111111113</v>
+        <v>32.30181818181818</v>
       </c>
     </row>
     <row r="139">
@@ -2376,10 +2376,10 @@
         <v>1937</v>
       </c>
       <c r="C139" t="n">
-        <v>124.8833333333334</v>
+        <v>126</v>
       </c>
       <c r="D139" t="n">
-        <v>31.76199444444446</v>
+        <v>32.30181818181818</v>
       </c>
     </row>
     <row r="140">
@@ -2390,10 +2390,10 @@
         <v>1938</v>
       </c>
       <c r="C140" t="n">
-        <v>124.7</v>
+        <v>125</v>
       </c>
       <c r="D140" t="n">
-        <v>31.67380000000002</v>
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="141">
@@ -2404,10 +2404,10 @@
         <v>1939</v>
       </c>
       <c r="C141" t="n">
-        <v>124.5166666666667</v>
+        <v>124</v>
       </c>
       <c r="D141" t="n">
-        <v>31.58572777777779</v>
+        <v>31.33818181818182</v>
       </c>
     </row>
     <row r="142">
@@ -2418,10 +2418,10 @@
         <v>1940</v>
       </c>
       <c r="C142" t="n">
-        <v>124.3333333333334</v>
+        <v>124</v>
       </c>
       <c r="D142" t="n">
-        <v>31.4977777777778</v>
+        <v>31.33818181818182</v>
       </c>
     </row>
     <row r="143">
@@ -2432,10 +2432,10 @@
         <v>1941</v>
       </c>
       <c r="C143" t="n">
-        <v>124.15</v>
+        <v>123</v>
       </c>
       <c r="D143" t="n">
-        <v>31.40995000000002</v>
+        <v>30.86181818181818</v>
       </c>
     </row>
     <row r="144">
@@ -2446,10 +2446,10 @@
         <v>1942</v>
       </c>
       <c r="C144" t="n">
-        <v>123.9666666666667</v>
+        <v>122</v>
       </c>
       <c r="D144" t="n">
-        <v>31.32224444444446</v>
+        <v>30.38909090909091</v>
       </c>
     </row>
     <row r="145">
@@ -2460,10 +2460,10 @@
         <v>1943</v>
       </c>
       <c r="C145" t="n">
-        <v>123.7833333333334</v>
+        <v>121</v>
       </c>
       <c r="D145" t="n">
-        <v>31.23466111111113</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="146">
@@ -2474,10 +2474,10 @@
         <v>1944</v>
       </c>
       <c r="C146" t="n">
-        <v>123.6000000000001</v>
+        <v>121</v>
       </c>
       <c r="D146" t="n">
-        <v>31.14720000000002</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="147">
@@ -2488,10 +2488,10 @@
         <v>1945</v>
       </c>
       <c r="C147" t="n">
-        <v>123.4166666666667</v>
+        <v>120</v>
       </c>
       <c r="D147" t="n">
-        <v>31.05986111111113</v>
+        <v>29.45454545454545</v>
       </c>
     </row>
     <row r="148">
@@ -2502,10 +2502,10 @@
         <v>1946</v>
       </c>
       <c r="C148" t="n">
-        <v>123.2333333333334</v>
+        <v>120</v>
       </c>
       <c r="D148" t="n">
-        <v>30.97264444444446</v>
+        <v>29.45454545454545</v>
       </c>
     </row>
     <row r="149">
@@ -2516,10 +2516,10 @@
         <v>1947</v>
       </c>
       <c r="C149" t="n">
-        <v>123.0500000000001</v>
+        <v>119</v>
       </c>
       <c r="D149" t="n">
-        <v>30.88555000000002</v>
+        <v>28.99272727272728</v>
       </c>
     </row>
     <row r="150">
@@ -2530,10 +2530,10 @@
         <v>1948</v>
       </c>
       <c r="C150" t="n">
-        <v>122.8666666666667</v>
+        <v>119</v>
       </c>
       <c r="D150" t="n">
-        <v>30.79857777777779</v>
+        <v>28.99272727272728</v>
       </c>
     </row>
     <row r="151">
@@ -2544,10 +2544,10 @@
         <v>1949</v>
       </c>
       <c r="C151" t="n">
-        <v>122.6833333333334</v>
+        <v>118</v>
       </c>
       <c r="D151" t="n">
-        <v>30.71172777777779</v>
+        <v>28.53454545454546</v>
       </c>
     </row>
     <row r="152">
@@ -2558,10 +2558,10 @@
         <v>1950</v>
       </c>
       <c r="C152" t="n">
-        <v>122.5000000000001</v>
+        <v>118</v>
       </c>
       <c r="D152" t="n">
-        <v>30.62500000000002</v>
+        <v>28.53454545454546</v>
       </c>
     </row>
     <row r="153">
@@ -2572,10 +2572,10 @@
         <v>1951</v>
       </c>
       <c r="C153" t="n">
-        <v>122.3166666666667</v>
+        <v>117</v>
       </c>
       <c r="D153" t="n">
-        <v>30.53839444444446</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="154">
@@ -2586,10 +2586,10 @@
         <v>1952</v>
       </c>
       <c r="C154" t="n">
-        <v>122.1333333333334</v>
+        <v>117</v>
       </c>
       <c r="D154" t="n">
-        <v>30.45191111111113</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="155">
@@ -2600,10 +2600,10 @@
         <v>1953</v>
       </c>
       <c r="C155" t="n">
-        <v>121.95</v>
+        <v>117</v>
       </c>
       <c r="D155" t="n">
-        <v>30.36555000000002</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="156">
@@ -2614,10 +2614,10 @@
         <v>1954</v>
       </c>
       <c r="C156" t="n">
-        <v>121.7666666666667</v>
+        <v>116</v>
       </c>
       <c r="D156" t="n">
-        <v>30.27931111111113</v>
+        <v>27.62909090909091</v>
       </c>
     </row>
     <row r="157">
@@ -2628,10 +2628,10 @@
         <v>1955</v>
       </c>
       <c r="C157" t="n">
-        <v>121.5833333333334</v>
+        <v>116</v>
       </c>
       <c r="D157" t="n">
-        <v>30.19319444444446</v>
+        <v>27.62909090909091</v>
       </c>
     </row>
     <row r="158">
@@ -2642,10 +2642,10 @@
         <v>1956</v>
       </c>
       <c r="C158" t="n">
-        <v>121.4000000000001</v>
+        <v>115</v>
       </c>
       <c r="D158" t="n">
-        <v>30.10720000000002</v>
+        <v>27.18181818181818</v>
       </c>
     </row>
     <row r="159">
@@ -2656,10 +2656,10 @@
         <v>1957</v>
       </c>
       <c r="C159" t="n">
-        <v>121.2166666666667</v>
+        <v>115</v>
       </c>
       <c r="D159" t="n">
-        <v>30.0213277777778</v>
+        <v>27.18181818181818</v>
       </c>
     </row>
     <row r="160">
@@ -2670,10 +2670,10 @@
         <v>1958</v>
       </c>
       <c r="C160" t="n">
-        <v>121.0333333333334</v>
+        <v>115</v>
       </c>
       <c r="D160" t="n">
-        <v>29.9355777777778</v>
+        <v>27.18181818181818</v>
       </c>
     </row>
     <row r="161">
@@ -2684,10 +2684,10 @@
         <v>1959</v>
       </c>
       <c r="C161" t="n">
-        <v>120.8500000000001</v>
+        <v>114</v>
       </c>
       <c r="D161" t="n">
-        <v>29.84995000000002</v>
+        <v>26.73818181818182</v>
       </c>
     </row>
     <row r="162">
@@ -2698,10 +2698,10 @@
         <v>1960</v>
       </c>
       <c r="C162" t="n">
-        <v>120.6666666666667</v>
+        <v>113</v>
       </c>
       <c r="D162" t="n">
-        <v>29.76444444444446</v>
+        <v>26.29818181818182</v>
       </c>
     </row>
     <row r="163">
@@ -2712,10 +2712,10 @@
         <v>1961</v>
       </c>
       <c r="C163" t="n">
-        <v>120.4833333333334</v>
+        <v>113</v>
       </c>
       <c r="D163" t="n">
-        <v>29.67906111111113</v>
+        <v>26.29818181818182</v>
       </c>
     </row>
     <row r="164">
@@ -2726,10 +2726,10 @@
         <v>1962</v>
       </c>
       <c r="C164" t="n">
-        <v>120.3000000000001</v>
+        <v>112</v>
       </c>
       <c r="D164" t="n">
-        <v>29.59380000000002</v>
+        <v>25.86181818181818</v>
       </c>
     </row>
     <row r="165">
@@ -2740,10 +2740,10 @@
         <v>1963</v>
       </c>
       <c r="C165" t="n">
-        <v>120.1166666666667</v>
+        <v>112</v>
       </c>
       <c r="D165" t="n">
-        <v>29.50866111111113</v>
+        <v>25.86181818181818</v>
       </c>
     </row>
     <row r="166">
@@ -2754,10 +2754,10 @@
         <v>1964</v>
       </c>
       <c r="C166" t="n">
-        <v>119.9333333333334</v>
+        <v>111</v>
       </c>
       <c r="D166" t="n">
-        <v>29.42364444444446</v>
+        <v>25.42909090909091</v>
       </c>
     </row>
     <row r="167">
@@ -2768,10 +2768,10 @@
         <v>1965</v>
       </c>
       <c r="C167" t="n">
-        <v>119.7500000000001</v>
+        <v>111</v>
       </c>
       <c r="D167" t="n">
-        <v>29.33875000000002</v>
+        <v>25.42909090909091</v>
       </c>
     </row>
     <row r="168">
@@ -2782,10 +2782,10 @@
         <v>1966</v>
       </c>
       <c r="C168" t="n">
-        <v>119.5666666666667</v>
+        <v>110</v>
       </c>
       <c r="D168" t="n">
-        <v>29.25397777777779</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
@@ -2796,10 +2796,10 @@
         <v>1967</v>
       </c>
       <c r="C169" t="n">
-        <v>119.3833333333334</v>
+        <v>110</v>
       </c>
       <c r="D169" t="n">
-        <v>29.1693277777778</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170">
@@ -2810,10 +2810,10 @@
         <v>1968</v>
       </c>
       <c r="C170" t="n">
-        <v>119.2000000000001</v>
+        <v>109</v>
       </c>
       <c r="D170" t="n">
-        <v>29.08480000000002</v>
+        <v>24.57454545454545</v>
       </c>
     </row>
     <row r="171">
@@ -2824,10 +2824,10 @@
         <v>1969</v>
       </c>
       <c r="C171" t="n">
-        <v>119.0166666666667</v>
+        <v>109</v>
       </c>
       <c r="D171" t="n">
-        <v>29.00039444444446</v>
+        <v>24.57454545454545</v>
       </c>
     </row>
     <row r="172">
@@ -2838,10 +2838,10 @@
         <v>1970</v>
       </c>
       <c r="C172" t="n">
-        <v>118.8333333333334</v>
+        <v>109</v>
       </c>
       <c r="D172" t="n">
-        <v>28.91611111111113</v>
+        <v>24.57454545454545</v>
       </c>
     </row>
     <row r="173">
@@ -2852,10 +2852,10 @@
         <v>1971</v>
       </c>
       <c r="C173" t="n">
-        <v>118.6500000000001</v>
+        <v>108</v>
       </c>
       <c r="D173" t="n">
-        <v>28.83195000000002</v>
+        <v>24.15272727272727</v>
       </c>
     </row>
     <row r="174">
@@ -2866,10 +2866,10 @@
         <v>1972</v>
       </c>
       <c r="C174" t="n">
-        <v>118.4666666666667</v>
+        <v>108</v>
       </c>
       <c r="D174" t="n">
-        <v>28.74791111111113</v>
+        <v>24.15272727272727</v>
       </c>
     </row>
     <row r="175">
@@ -2880,10 +2880,10 @@
         <v>1973</v>
       </c>
       <c r="C175" t="n">
-        <v>118.2833333333334</v>
+        <v>108</v>
       </c>
       <c r="D175" t="n">
-        <v>28.66399444444446</v>
+        <v>24.15272727272727</v>
       </c>
     </row>
     <row r="176">
@@ -2894,10 +2894,10 @@
         <v>1974</v>
       </c>
       <c r="C176" t="n">
-        <v>118.1000000000001</v>
+        <v>107</v>
       </c>
       <c r="D176" t="n">
-        <v>28.58020000000002</v>
+        <v>23.73454545454545</v>
       </c>
     </row>
     <row r="177">
@@ -2908,10 +2908,10 @@
         <v>1975</v>
       </c>
       <c r="C177" t="n">
-        <v>117.9166666666667</v>
+        <v>107</v>
       </c>
       <c r="D177" t="n">
-        <v>28.4965277777778</v>
+        <v>23.73454545454545</v>
       </c>
     </row>
     <row r="178">
@@ -2922,10 +2922,10 @@
         <v>1976</v>
       </c>
       <c r="C178" t="n">
-        <v>117.7333333333334</v>
+        <v>106</v>
       </c>
       <c r="D178" t="n">
-        <v>28.4129777777778</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="179">
@@ -2936,10 +2936,10 @@
         <v>1977</v>
       </c>
       <c r="C179" t="n">
-        <v>117.5500000000001</v>
+        <v>106</v>
       </c>
       <c r="D179" t="n">
-        <v>28.32955000000002</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="180">
@@ -2950,10 +2950,10 @@
         <v>1978</v>
       </c>
       <c r="C180" t="n">
-        <v>117.3666666666667</v>
+        <v>106</v>
       </c>
       <c r="D180" t="n">
-        <v>28.24624444444447</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="181">
@@ -2964,10 +2964,10 @@
         <v>1979</v>
       </c>
       <c r="C181" t="n">
-        <v>117.1833333333334</v>
+        <v>105</v>
       </c>
       <c r="D181" t="n">
-        <v>28.16306111111113</v>
+        <v>22.90909090909091</v>
       </c>
     </row>
     <row r="182">
@@ -2978,10 +2978,10 @@
         <v>1980</v>
       </c>
       <c r="C182" t="n">
-        <v>117.0000000000001</v>
+        <v>105</v>
       </c>
       <c r="D182" t="n">
-        <v>28.08000000000002</v>
+        <v>22.90909090909091</v>
       </c>
     </row>
     <row r="183">
@@ -2992,10 +2992,10 @@
         <v>1981</v>
       </c>
       <c r="C183" t="n">
-        <v>116.8166666666667</v>
+        <v>105</v>
       </c>
       <c r="D183" t="n">
-        <v>27.99706111111113</v>
+        <v>22.90909090909091</v>
       </c>
     </row>
     <row r="184">
@@ -3006,10 +3006,10 @@
         <v>1982</v>
       </c>
       <c r="C184" t="n">
-        <v>116.6333333333334</v>
+        <v>104</v>
       </c>
       <c r="D184" t="n">
-        <v>27.91424444444447</v>
+        <v>22.50181818181818</v>
       </c>
     </row>
     <row r="185">
@@ -3020,10 +3020,10 @@
         <v>1983</v>
       </c>
       <c r="C185" t="n">
-        <v>116.4500000000001</v>
+        <v>104</v>
       </c>
       <c r="D185" t="n">
-        <v>27.83155000000002</v>
+        <v>22.50181818181818</v>
       </c>
     </row>
     <row r="186">
@@ -3034,10 +3034,10 @@
         <v>1984</v>
       </c>
       <c r="C186" t="n">
-        <v>116.2666666666667</v>
+        <v>104</v>
       </c>
       <c r="D186" t="n">
-        <v>27.7489777777778</v>
+        <v>22.50181818181818</v>
       </c>
     </row>
     <row r="187">
@@ -3048,10 +3048,10 @@
         <v>1985</v>
       </c>
       <c r="C187" t="n">
-        <v>116.0833333333334</v>
+        <v>103</v>
       </c>
       <c r="D187" t="n">
-        <v>27.6665277777778</v>
+        <v>22.09818181818182</v>
       </c>
     </row>
     <row r="188">
@@ -3062,10 +3062,10 @@
         <v>1986</v>
       </c>
       <c r="C188" t="n">
-        <v>115.9000000000001</v>
+        <v>103</v>
       </c>
       <c r="D188" t="n">
-        <v>27.58420000000002</v>
+        <v>22.09818181818182</v>
       </c>
     </row>
     <row r="189">
@@ -3076,10 +3076,10 @@
         <v>1987</v>
       </c>
       <c r="C189" t="n">
-        <v>115.7166666666667</v>
+        <v>103</v>
       </c>
       <c r="D189" t="n">
-        <v>27.50199444444446</v>
+        <v>22.09818181818182</v>
       </c>
     </row>
     <row r="190">
@@ -3090,10 +3090,10 @@
         <v>1988</v>
       </c>
       <c r="C190" t="n">
-        <v>115.5333333333334</v>
+        <v>102</v>
       </c>
       <c r="D190" t="n">
-        <v>27.41991111111113</v>
+        <v>21.69818181818182</v>
       </c>
     </row>
     <row r="191">
@@ -3104,10 +3104,10 @@
         <v>1989</v>
       </c>
       <c r="C191" t="n">
-        <v>115.3500000000001</v>
+        <v>102</v>
       </c>
       <c r="D191" t="n">
-        <v>27.33795000000002</v>
+        <v>21.69818181818182</v>
       </c>
     </row>
     <row r="192">
@@ -3118,10 +3118,10 @@
         <v>1990</v>
       </c>
       <c r="C192" t="n">
-        <v>115.1666666666667</v>
+        <v>102</v>
       </c>
       <c r="D192" t="n">
-        <v>27.25611111111114</v>
+        <v>21.69818181818182</v>
       </c>
     </row>
     <row r="193">
@@ -3132,10 +3132,10 @@
         <v>1991</v>
       </c>
       <c r="C193" t="n">
-        <v>114.9833333333334</v>
+        <v>102</v>
       </c>
       <c r="D193" t="n">
-        <v>27.17439444444447</v>
+        <v>21.69818181818182</v>
       </c>
     </row>
     <row r="194">
@@ -3146,10 +3146,10 @@
         <v>1992</v>
       </c>
       <c r="C194" t="n">
-        <v>114.8000000000001</v>
+        <v>102</v>
       </c>
       <c r="D194" t="n">
-        <v>27.09280000000002</v>
+        <v>21.69818181818182</v>
       </c>
     </row>
     <row r="195">
@@ -3160,10 +3160,10 @@
         <v>1993</v>
       </c>
       <c r="C195" t="n">
-        <v>114.6166666666667</v>
+        <v>102</v>
       </c>
       <c r="D195" t="n">
-        <v>27.0113277777778</v>
+        <v>21.69818181818182</v>
       </c>
     </row>
     <row r="196">
@@ -3174,10 +3174,10 @@
         <v>1994</v>
       </c>
       <c r="C196" t="n">
-        <v>114.4333333333334</v>
+        <v>101</v>
       </c>
       <c r="D196" t="n">
-        <v>26.9299777777778</v>
+        <v>21.30181818181818</v>
       </c>
     </row>
     <row r="197">
@@ -3188,10 +3188,10 @@
         <v>1995</v>
       </c>
       <c r="C197" t="n">
-        <v>114.2500000000001</v>
+        <v>101</v>
       </c>
       <c r="D197" t="n">
-        <v>26.84875000000002</v>
+        <v>21.30181818181818</v>
       </c>
     </row>
     <row r="198">
@@ -3202,10 +3202,10 @@
         <v>1996</v>
       </c>
       <c r="C198" t="n">
-        <v>114.0666666666667</v>
+        <v>101</v>
       </c>
       <c r="D198" t="n">
-        <v>26.76764444444447</v>
+        <v>21.30181818181818</v>
       </c>
     </row>
     <row r="199">
@@ -3216,10 +3216,10 @@
         <v>1997</v>
       </c>
       <c r="C199" t="n">
-        <v>113.8833333333334</v>
+        <v>101</v>
       </c>
       <c r="D199" t="n">
-        <v>26.68666111111114</v>
+        <v>21.30181818181818</v>
       </c>
     </row>
     <row r="200">
@@ -3230,10 +3230,10 @@
         <v>1998</v>
       </c>
       <c r="C200" t="n">
-        <v>113.7000000000001</v>
+        <v>100</v>
       </c>
       <c r="D200" t="n">
-        <v>26.60580000000002</v>
+        <v>20.90909090909091</v>
       </c>
     </row>
     <row r="201">
@@ -3244,10 +3244,10 @@
         <v>1999</v>
       </c>
       <c r="C201" t="n">
-        <v>113.5166666666667</v>
+        <v>100</v>
       </c>
       <c r="D201" t="n">
-        <v>26.52506111111113</v>
+        <v>20.90909090909091</v>
       </c>
     </row>
     <row r="202">
@@ -3258,10 +3258,10 @@
         <v>2000</v>
       </c>
       <c r="C202" t="n">
-        <v>113.3333333333334</v>
+        <v>100</v>
       </c>
       <c r="D202" t="n">
-        <v>26.44444444444447</v>
+        <v>20.90909090909091</v>
       </c>
     </row>
     <row r="203">
@@ -3272,10 +3272,10 @@
         <v>2001</v>
       </c>
       <c r="C203" t="n">
-        <v>113.1500000000001</v>
+        <v>100</v>
       </c>
       <c r="D203" t="n">
-        <v>26.36395000000002</v>
+        <v>20.90909090909091</v>
       </c>
     </row>
     <row r="204">
@@ -3286,10 +3286,10 @@
         <v>2002</v>
       </c>
       <c r="C204" t="n">
-        <v>112.9666666666667</v>
+        <v>99</v>
       </c>
       <c r="D204" t="n">
-        <v>26.2835777777778</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="205">
@@ -3300,10 +3300,10 @@
         <v>2003</v>
       </c>
       <c r="C205" t="n">
-        <v>112.7833333333334</v>
+        <v>99</v>
       </c>
       <c r="D205" t="n">
-        <v>26.2033277777778</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="206">
@@ -3314,10 +3314,10 @@
         <v>2004</v>
       </c>
       <c r="C206" t="n">
-        <v>112.6000000000001</v>
+        <v>99</v>
       </c>
       <c r="D206" t="n">
-        <v>26.12320000000002</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="207">
@@ -3328,10 +3328,10 @@
         <v>2005</v>
       </c>
       <c r="C207" t="n">
-        <v>112.4166666666667</v>
+        <v>99</v>
       </c>
       <c r="D207" t="n">
-        <v>26.04319444444447</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="208">
@@ -3342,10 +3342,10 @@
         <v>2006</v>
       </c>
       <c r="C208" t="n">
-        <v>112.2333333333334</v>
+        <v>99</v>
       </c>
       <c r="D208" t="n">
-        <v>25.96331111111114</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="209">
@@ -3356,10 +3356,10 @@
         <v>2007</v>
       </c>
       <c r="C209" t="n">
-        <v>112.0500000000001</v>
+        <v>99</v>
       </c>
       <c r="D209" t="n">
-        <v>25.88355000000002</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="210">
@@ -3370,10 +3370,10 @@
         <v>2008</v>
       </c>
       <c r="C210" t="n">
-        <v>111.8666666666667</v>
+        <v>98</v>
       </c>
       <c r="D210" t="n">
-        <v>25.80391111111113</v>
+        <v>20.13454545454546</v>
       </c>
     </row>
     <row r="211">
@@ -3384,10 +3384,10 @@
         <v>2009</v>
       </c>
       <c r="C211" t="n">
-        <v>111.6833333333334</v>
+        <v>98</v>
       </c>
       <c r="D211" t="n">
-        <v>25.72439444444447</v>
+        <v>20.13454545454546</v>
       </c>
     </row>
     <row r="212">
@@ -3398,10 +3398,10 @@
         <v>2010</v>
       </c>
       <c r="C212" t="n">
-        <v>111.5000000000001</v>
+        <v>98</v>
       </c>
       <c r="D212" t="n">
-        <v>25.64500000000002</v>
+        <v>20.13454545454546</v>
       </c>
     </row>
     <row r="213">
@@ -3412,10 +3412,10 @@
         <v>2011</v>
       </c>
       <c r="C213" t="n">
-        <v>111.3166666666667</v>
+        <v>98</v>
       </c>
       <c r="D213" t="n">
-        <v>25.56572777777781</v>
+        <v>20.13454545454546</v>
       </c>
     </row>
     <row r="214">
@@ -3426,10 +3426,10 @@
         <v>2012</v>
       </c>
       <c r="C214" t="n">
-        <v>111.1333333333334</v>
+        <v>98</v>
       </c>
       <c r="D214" t="n">
-        <v>25.4865777777778</v>
+        <v>20.13454545454546</v>
       </c>
     </row>
     <row r="215">
@@ -3440,10 +3440,10 @@
         <v>2013</v>
       </c>
       <c r="C215" t="n">
-        <v>110.9500000000001</v>
+        <v>98</v>
       </c>
       <c r="D215" t="n">
-        <v>25.40755000000003</v>
+        <v>20.13454545454546</v>
       </c>
     </row>
     <row r="216">
@@ -3454,10 +3454,10 @@
         <v>2014</v>
       </c>
       <c r="C216" t="n">
-        <v>110.7666666666667</v>
+        <v>98</v>
       </c>
       <c r="D216" t="n">
-        <v>25.32864444444447</v>
+        <v>20.13454545454546</v>
       </c>
     </row>
     <row r="217">
@@ -3468,10 +3468,10 @@
         <v>2015</v>
       </c>
       <c r="C217" t="n">
-        <v>110.5833333333334</v>
+        <v>97</v>
       </c>
       <c r="D217" t="n">
-        <v>25.24986111111113</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="218">
@@ -3482,10 +3482,10 @@
         <v>2016</v>
       </c>
       <c r="C218" t="n">
-        <v>110.4000000000001</v>
+        <v>97</v>
       </c>
       <c r="D218" t="n">
-        <v>25.17120000000002</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="219">
@@ -3496,10 +3496,10 @@
         <v>2017</v>
       </c>
       <c r="C219" t="n">
-        <v>110.2166666666667</v>
+        <v>97</v>
       </c>
       <c r="D219" t="n">
-        <v>25.09266111111113</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="220">
@@ -3510,10 +3510,10 @@
         <v>2018</v>
       </c>
       <c r="C220" t="n">
-        <v>110.0333333333334</v>
+        <v>97</v>
       </c>
       <c r="D220" t="n">
-        <v>25.01424444444447</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="221">
@@ -3524,10 +3524,10 @@
         <v>2019</v>
       </c>
       <c r="C221" t="n">
-        <v>109.8500000000001</v>
+        <v>97</v>
       </c>
       <c r="D221" t="n">
-        <v>24.93595000000003</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="222">
@@ -3538,10 +3538,10 @@
         <v>2020</v>
       </c>
       <c r="C222" t="n">
-        <v>109.6666666666667</v>
+        <v>97</v>
       </c>
       <c r="D222" t="n">
-        <v>24.8577777777778</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="223">
@@ -3552,10 +3552,10 @@
         <v>2021</v>
       </c>
       <c r="C223" t="n">
-        <v>109.4833333333334</v>
+        <v>97</v>
       </c>
       <c r="D223" t="n">
-        <v>24.7797277777778</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="224">
@@ -3566,10 +3566,10 @@
         <v>2022</v>
       </c>
       <c r="C224" t="n">
-        <v>109.3000000000001</v>
+        <v>97</v>
       </c>
       <c r="D224" t="n">
-        <v>24.70180000000002</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="225">
@@ -3580,10 +3580,10 @@
         <v>2023</v>
       </c>
       <c r="C225" t="n">
-        <v>109.1166666666667</v>
+        <v>97</v>
       </c>
       <c r="D225" t="n">
-        <v>24.62399444444447</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="226">
@@ -3594,10 +3594,10 @@
         <v>2024</v>
       </c>
       <c r="C226" t="n">
-        <v>108.9333333333334</v>
+        <v>97</v>
       </c>
       <c r="D226" t="n">
-        <v>24.54631111111113</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="227">
@@ -3608,10 +3608,10 @@
         <v>2025</v>
       </c>
       <c r="C227" t="n">
-        <v>108.7500000000001</v>
+        <v>97</v>
       </c>
       <c r="D227" t="n">
-        <v>24.46875000000002</v>
+        <v>19.75272727272727</v>
       </c>
     </row>
     <row r="228">
@@ -3622,10 +3622,10 @@
         <v>2026</v>
       </c>
       <c r="C228" t="n">
-        <v>108.5666666666667</v>
+        <v>96</v>
       </c>
       <c r="D228" t="n">
-        <v>24.39131111111114</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="229">
@@ -3636,10 +3636,10 @@
         <v>2027</v>
       </c>
       <c r="C229" t="n">
-        <v>108.3833333333334</v>
+        <v>96</v>
       </c>
       <c r="D229" t="n">
-        <v>24.31399444444447</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="230">
@@ -3650,10 +3650,10 @@
         <v>2028</v>
       </c>
       <c r="C230" t="n">
-        <v>108.2000000000001</v>
+        <v>96</v>
       </c>
       <c r="D230" t="n">
-        <v>24.23680000000002</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="231">
@@ -3664,10 +3664,10 @@
         <v>2029</v>
       </c>
       <c r="C231" t="n">
-        <v>108.0166666666667</v>
+        <v>96</v>
       </c>
       <c r="D231" t="n">
-        <v>24.1597277777778</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="232">
@@ -3678,10 +3678,10 @@
         <v>2030</v>
       </c>
       <c r="C232" t="n">
-        <v>107.8333333333334</v>
+        <v>96</v>
       </c>
       <c r="D232" t="n">
-        <v>24.0827777777778</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="233">
@@ -3692,10 +3692,10 @@
         <v>2031</v>
       </c>
       <c r="C233" t="n">
-        <v>107.6500000000001</v>
+        <v>96</v>
       </c>
       <c r="D233" t="n">
-        <v>24.00595000000003</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="234">
@@ -3706,10 +3706,10 @@
         <v>2032</v>
       </c>
       <c r="C234" t="n">
-        <v>107.4666666666668</v>
+        <v>96</v>
       </c>
       <c r="D234" t="n">
-        <v>23.92924444444447</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="235">
@@ -3720,10 +3720,10 @@
         <v>2033</v>
       </c>
       <c r="C235" t="n">
-        <v>107.2833333333334</v>
+        <v>96</v>
       </c>
       <c r="D235" t="n">
-        <v>23.85266111111114</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="236">
@@ -3734,10 +3734,10 @@
         <v>2034</v>
       </c>
       <c r="C236" t="n">
-        <v>107.1000000000001</v>
+        <v>96</v>
       </c>
       <c r="D236" t="n">
-        <v>23.77620000000003</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="237">
@@ -3748,10 +3748,10 @@
         <v>2035</v>
       </c>
       <c r="C237" t="n">
-        <v>106.9166666666667</v>
+        <v>96</v>
       </c>
       <c r="D237" t="n">
-        <v>23.69986111111114</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="238">
@@ -3762,10 +3762,10 @@
         <v>2036</v>
       </c>
       <c r="C238" t="n">
-        <v>106.7333333333334</v>
+        <v>96</v>
       </c>
       <c r="D238" t="n">
-        <v>23.62364444444447</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="239">
@@ -3776,10 +3776,10 @@
         <v>2037</v>
       </c>
       <c r="C239" t="n">
-        <v>106.5500000000001</v>
+        <v>96</v>
       </c>
       <c r="D239" t="n">
-        <v>23.54755000000003</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="240">
@@ -3790,10 +3790,10 @@
         <v>2038</v>
       </c>
       <c r="C240" t="n">
-        <v>106.3666666666668</v>
+        <v>96</v>
       </c>
       <c r="D240" t="n">
-        <v>23.47157777777781</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="241">
@@ -3804,10 +3804,10 @@
         <v>2039</v>
       </c>
       <c r="C241" t="n">
-        <v>106.1833333333334</v>
+        <v>96</v>
       </c>
       <c r="D241" t="n">
-        <v>23.3957277777778</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="242">
@@ -3818,10 +3818,10 @@
         <v>2040</v>
       </c>
       <c r="C242" t="n">
-        <v>106.0000000000001</v>
+        <v>96</v>
       </c>
       <c r="D242" t="n">
-        <v>23.32000000000003</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="243">
@@ -3832,10 +3832,10 @@
         <v>2041</v>
       </c>
       <c r="C243" t="n">
-        <v>105.8166666666667</v>
+        <v>96</v>
       </c>
       <c r="D243" t="n">
-        <v>23.24439444444447</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="244">
@@ -3846,10 +3846,10 @@
         <v>2042</v>
       </c>
       <c r="C244" t="n">
-        <v>105.6333333333334</v>
+        <v>96</v>
       </c>
       <c r="D244" t="n">
-        <v>23.16891111111114</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="245">
@@ -3860,10 +3860,10 @@
         <v>2043</v>
       </c>
       <c r="C245" t="n">
-        <v>105.4500000000001</v>
+        <v>96</v>
       </c>
       <c r="D245" t="n">
-        <v>23.09355000000003</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="246">
@@ -3874,10 +3874,10 @@
         <v>2044</v>
       </c>
       <c r="C246" t="n">
-        <v>105.2666666666668</v>
+        <v>96</v>
       </c>
       <c r="D246" t="n">
-        <v>23.01831111111114</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="247">
@@ -3888,10 +3888,10 @@
         <v>2045</v>
       </c>
       <c r="C247" t="n">
-        <v>105.0833333333334</v>
+        <v>96</v>
       </c>
       <c r="D247" t="n">
-        <v>22.94319444444447</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="248">
@@ -3902,10 +3902,10 @@
         <v>2046</v>
       </c>
       <c r="C248" t="n">
-        <v>104.9000000000001</v>
+        <v>96</v>
       </c>
       <c r="D248" t="n">
-        <v>22.86820000000003</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="249">
@@ -3916,10 +3916,10 @@
         <v>2047</v>
       </c>
       <c r="C249" t="n">
-        <v>104.7166666666668</v>
+        <v>96</v>
       </c>
       <c r="D249" t="n">
-        <v>22.7933277777778</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="250">
@@ -3930,10 +3930,10 @@
         <v>2048</v>
       </c>
       <c r="C250" t="n">
-        <v>104.5333333333334</v>
+        <v>96</v>
       </c>
       <c r="D250" t="n">
-        <v>22.7185777777778</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="251">
@@ -3944,10 +3944,10 @@
         <v>2049</v>
       </c>
       <c r="C251" t="n">
-        <v>104.3500000000001</v>
+        <v>96</v>
       </c>
       <c r="D251" t="n">
-        <v>22.64395000000003</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
     <row r="252">
@@ -3958,10 +3958,10 @@
         <v>2050</v>
       </c>
       <c r="C252" t="n">
-        <v>104.1666666666668</v>
+        <v>96</v>
       </c>
       <c r="D252" t="n">
-        <v>22.56944444444447</v>
+        <v>19.37454545454545</v>
       </c>
     </row>
   </sheetData>
